--- a/capiq_data/in_process_data/IQ294721.xlsx
+++ b/capiq_data/in_process_data/IQ294721.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0863E6-76F5-49B2-AFD3-C8ECEF2DD9DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5D22CD-192E-46C8-856A-026E0CBFCA14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"02b4df83-47a1-482c-9d41-ca8cd2815ffa"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"09b7e629-6b8a-46f4-920f-4196244333ca"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +853,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>169.8</v>
+        <v>62.7</v>
       </c>
       <c r="D2">
-        <v>3055.6</v>
+        <v>1672</v>
       </c>
       <c r="E2">
-        <v>610.4</v>
+        <v>530.79999999999995</v>
       </c>
       <c r="F2">
-        <v>404.8</v>
+        <v>182.8</v>
       </c>
       <c r="G2">
-        <v>9934.2999999999993</v>
+        <v>6787.5</v>
       </c>
       <c r="H2">
-        <v>14234.1</v>
+        <v>8270.9</v>
       </c>
       <c r="I2">
-        <v>707.4</v>
+        <v>752.1</v>
       </c>
       <c r="J2">
-        <v>150</v>
+        <v>124.7</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -772,78 +892,78 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>4102.3</v>
+        <v>3609.1</v>
       </c>
       <c r="O2">
-        <v>8876.2999999999993</v>
+        <v>6021.8</v>
       </c>
       <c r="P2">
-        <v>5387</v>
+        <v>3997.7</v>
       </c>
       <c r="Q2">
-        <v>-16.399999999999999</v>
+        <v>91.8</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>17700</v>
+        <v>18000</v>
       </c>
       <c r="T2">
-        <v>5357.8</v>
+        <v>2249.1</v>
       </c>
       <c r="U2">
-        <v>1982</v>
+        <v>515</v>
       </c>
       <c r="V2">
-        <v>388.6</v>
+        <v>298.7</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>-22.9</v>
       </c>
       <c r="X2">
-        <v>-99.1</v>
+        <v>-131.30000000000001</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>-96.2</v>
+        <v>105.8</v>
       </c>
       <c r="AA2">
-        <v>169.8</v>
+        <v>62.7</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>193.3</v>
+        <v>44.3</v>
       </c>
       <c r="D3">
-        <v>3283.6</v>
+        <v>1528.2</v>
       </c>
       <c r="E3">
-        <v>865.4</v>
+        <v>536.6</v>
       </c>
       <c r="F3">
-        <v>460.6</v>
+        <v>150.1</v>
       </c>
       <c r="G3">
-        <v>10597.9</v>
+        <v>6409.2</v>
       </c>
       <c r="H3">
-        <v>15133.7</v>
+        <v>7903.5</v>
       </c>
       <c r="I3">
-        <v>2042</v>
+        <v>1118</v>
       </c>
       <c r="J3">
-        <v>150</v>
+        <v>117.7</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -852,81 +972,81 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-250.2</v>
+        <v>-235.2</v>
       </c>
       <c r="N3">
-        <v>2385.1</v>
+        <v>3522.6</v>
       </c>
       <c r="O3">
-        <v>9484.7999999999993</v>
+        <v>5708</v>
       </c>
       <c r="P3">
-        <v>5519.1</v>
+        <v>3737.7</v>
       </c>
       <c r="Q3">
-        <v>-351.1</v>
+        <v>-67.599999999999994</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>5648.9</v>
+        <v>2195.5</v>
       </c>
       <c r="U3">
-        <v>1642.8</v>
+        <v>450.4</v>
       </c>
       <c r="V3">
-        <v>459.3</v>
+        <v>82</v>
       </c>
       <c r="W3">
-        <v>-43.8</v>
+        <v>-99.4</v>
       </c>
       <c r="X3">
-        <v>-10.4</v>
+        <v>-324.60000000000002</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>-525.79999999999995</v>
+        <v>59.6</v>
       </c>
       <c r="AA3">
-        <v>193.3</v>
+        <v>44.3</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>239.7</v>
+        <v>39.5</v>
       </c>
       <c r="D4">
-        <v>3960.7</v>
+        <v>1531</v>
       </c>
       <c r="E4">
-        <v>971.4</v>
+        <v>493.6</v>
       </c>
       <c r="F4">
-        <v>528.5</v>
+        <v>146.69999999999999</v>
       </c>
       <c r="G4">
-        <v>11432.8</v>
+        <v>6321.9</v>
       </c>
       <c r="H4">
-        <v>16301</v>
+        <v>7800.3</v>
       </c>
       <c r="I4">
-        <v>2471.8000000000002</v>
+        <v>1068.9000000000001</v>
       </c>
       <c r="J4">
-        <v>150</v>
+        <v>49</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,78 +1058,78 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2769.1</v>
+        <v>3500.5</v>
       </c>
       <c r="O4">
-        <v>10387</v>
+        <v>5594.3</v>
       </c>
       <c r="P4">
-        <v>5999.1</v>
+        <v>3649.7</v>
       </c>
       <c r="Q4">
-        <v>182.9</v>
+        <v>31</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>5914</v>
+        <v>2206</v>
       </c>
       <c r="U4">
-        <v>1800.4</v>
+        <v>468.8</v>
       </c>
       <c r="V4">
-        <v>332.7</v>
+        <v>163.9</v>
       </c>
       <c r="W4">
-        <v>-43.9</v>
+        <v>-23</v>
       </c>
       <c r="X4">
-        <v>373.1</v>
+        <v>-124.1</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>-40.1</v>
+        <v>-2.9</v>
       </c>
       <c r="AA4">
-        <v>239.7</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>281.60000000000002</v>
+        <v>39.4</v>
       </c>
       <c r="D5">
-        <v>4257.1000000000004</v>
+        <v>1503.4</v>
       </c>
       <c r="E5">
-        <v>1015.2</v>
+        <v>507.7</v>
       </c>
       <c r="F5">
-        <v>570.79999999999995</v>
+        <v>142.5</v>
       </c>
       <c r="G5">
-        <v>11447.7</v>
+        <v>6371</v>
       </c>
       <c r="H5">
-        <v>16354.3</v>
+        <v>7922.6</v>
       </c>
       <c r="I5">
-        <v>2532.6999999999998</v>
+        <v>1091.4000000000001</v>
       </c>
       <c r="J5">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,81 +1141,81 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2857.4</v>
+        <v>3680.3</v>
       </c>
       <c r="O5">
-        <v>10760.4</v>
+        <v>5674.2</v>
       </c>
       <c r="P5">
-        <v>6220.4</v>
+        <v>3637.5</v>
       </c>
       <c r="Q5">
-        <v>7</v>
+        <v>108.6</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>5593.9</v>
+        <v>2248.4</v>
       </c>
       <c r="U5">
-        <v>1814</v>
+        <v>579.6</v>
       </c>
       <c r="V5">
-        <v>359.3</v>
+        <v>110.8</v>
       </c>
       <c r="W5">
-        <v>-65.400000000000006</v>
+        <v>-23</v>
       </c>
       <c r="X5">
-        <v>149.6</v>
+        <v>-18.5</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>92.8</v>
+        <v>-25.9</v>
       </c>
       <c r="AA5">
-        <v>281.60000000000002</v>
+        <v>39.4</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>327.7</v>
+        <v>50.4</v>
       </c>
       <c r="D6">
-        <v>4853.8</v>
+        <v>1537.9</v>
       </c>
       <c r="E6">
-        <v>835.4</v>
+        <v>396.3</v>
       </c>
       <c r="F6">
-        <v>660.6</v>
+        <v>158.30000000000001</v>
       </c>
       <c r="G6">
-        <v>12232</v>
+        <v>6313</v>
       </c>
       <c r="H6">
-        <v>17172.7</v>
+        <v>7913.9</v>
       </c>
       <c r="I6">
-        <v>1098.9000000000001</v>
+        <v>681.1</v>
       </c>
       <c r="J6">
-        <v>150</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,161 +1224,161 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>6772.7</v>
+        <v>1230.8</v>
       </c>
       <c r="O6">
-        <v>11808.3</v>
+        <v>5661.3</v>
       </c>
       <c r="P6">
-        <v>6763.4</v>
+        <v>3568.1</v>
       </c>
       <c r="Q6">
-        <v>227.1</v>
+        <v>46.5</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>23400</v>
+        <v>16000</v>
       </c>
       <c r="T6">
-        <v>5364.4</v>
+        <v>2252.6</v>
       </c>
       <c r="U6">
-        <v>1990.6</v>
+        <v>616.20000000000005</v>
       </c>
       <c r="V6">
-        <v>441.3</v>
+        <v>269</v>
       </c>
       <c r="W6">
-        <v>-64.3</v>
+        <v>-23</v>
       </c>
       <c r="X6">
-        <v>433.8</v>
+        <v>-85.3</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>1.3</v>
+        <v>-39</v>
       </c>
       <c r="AA6">
-        <v>327.7</v>
+        <v>50.4</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>327.3</v>
+        <v>47.2</v>
       </c>
       <c r="D7">
-        <v>4776.1000000000004</v>
+        <v>1501.5</v>
       </c>
       <c r="E7">
-        <v>1195.9000000000001</v>
+        <v>460.9</v>
       </c>
       <c r="F7">
-        <v>666.1</v>
+        <v>150.6</v>
       </c>
       <c r="G7">
-        <v>12986.1</v>
+        <v>6296.6</v>
       </c>
       <c r="H7">
-        <v>18157.8</v>
+        <v>7900</v>
       </c>
       <c r="I7">
-        <v>2842.8</v>
+        <v>1063.0999999999999</v>
       </c>
       <c r="J7">
-        <v>150</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>-25.9</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>-259.60000000000002</v>
+        <v>-262.5</v>
       </c>
       <c r="N7">
-        <v>3224.9</v>
+        <v>3021.1</v>
       </c>
       <c r="O7">
-        <v>12438.7</v>
+        <v>5600.4</v>
       </c>
       <c r="P7">
-        <v>7191.6</v>
+        <v>3462.5</v>
       </c>
       <c r="Q7">
-        <v>-183.6</v>
+        <v>81.7</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>5719.1</v>
+        <v>2299.6</v>
       </c>
       <c r="U7">
-        <v>1832</v>
+        <v>699.5</v>
       </c>
       <c r="V7">
-        <v>126.3</v>
+        <v>149</v>
       </c>
       <c r="W7">
-        <v>-314.39999999999998</v>
+        <v>-42.3</v>
       </c>
       <c r="X7">
-        <v>22.4</v>
+        <v>-129.80000000000001</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>-26.3</v>
+        <v>55.1</v>
       </c>
       <c r="AA7">
-        <v>327.3</v>
+        <v>47.2</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>297.2</v>
+        <v>73.7</v>
       </c>
       <c r="D8">
-        <v>4457.2</v>
+        <v>1801.8</v>
       </c>
       <c r="E8">
-        <v>1120.9000000000001</v>
+        <v>546</v>
       </c>
       <c r="F8">
-        <v>636</v>
+        <v>209.8</v>
       </c>
       <c r="G8">
-        <v>12941.6</v>
+        <v>6578.7</v>
       </c>
       <c r="H8">
-        <v>18244.8</v>
+        <v>8308.7000000000007</v>
       </c>
       <c r="I8">
-        <v>2606.4</v>
+        <v>1291.5999999999999</v>
       </c>
       <c r="J8">
-        <v>150</v>
+        <v>41.8</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,78 +1390,78 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2942.9</v>
+        <v>3589.6</v>
       </c>
       <c r="O8">
-        <v>12532.7</v>
+        <v>5864</v>
       </c>
       <c r="P8">
-        <v>7514.9</v>
+        <v>3480</v>
       </c>
       <c r="Q8">
-        <v>-203.2</v>
+        <v>-38.1</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>5712.1</v>
+        <v>2444.6999999999998</v>
       </c>
       <c r="U8">
-        <v>1662.7</v>
+        <v>670.4</v>
       </c>
       <c r="V8">
-        <v>317.7</v>
+        <v>176.8</v>
       </c>
       <c r="W8">
-        <v>-71.3</v>
+        <v>-23.2</v>
       </c>
       <c r="X8">
-        <v>241.8</v>
+        <v>-79.900000000000006</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>-4.5999999999999996</v>
+        <v>-73</v>
       </c>
       <c r="AA8">
-        <v>297.2</v>
+        <v>73.7</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>233.6</v>
+        <v>128.9</v>
       </c>
       <c r="D9">
-        <v>3820.2</v>
+        <v>1996.3</v>
       </c>
       <c r="E9">
-        <v>1003.6</v>
+        <v>522.9</v>
       </c>
       <c r="F9">
-        <v>518.6</v>
+        <v>280.8</v>
       </c>
       <c r="G9">
-        <v>13104.6</v>
+        <v>6845.7</v>
       </c>
       <c r="H9">
-        <v>18692.5</v>
+        <v>8601.2000000000007</v>
       </c>
       <c r="I9">
-        <v>2479.1999999999998</v>
+        <v>1359.6</v>
       </c>
       <c r="J9">
-        <v>150</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,81 +1473,81 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2869.3</v>
+        <v>3611.9</v>
       </c>
       <c r="O9">
-        <v>12830.4</v>
+        <v>6055.4</v>
       </c>
       <c r="P9">
-        <v>7778.9</v>
+        <v>3486.5</v>
       </c>
       <c r="Q9">
-        <v>30.6</v>
+        <v>49</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>5862.1</v>
+        <v>2545.8000000000002</v>
       </c>
       <c r="U9">
-        <v>1685</v>
+        <v>707.3</v>
       </c>
       <c r="V9">
-        <v>472.6</v>
+        <v>339.8</v>
       </c>
       <c r="W9">
-        <v>-70.2</v>
+        <v>-23.2</v>
       </c>
       <c r="X9">
-        <v>115.8</v>
+        <v>2.4</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>-21.8</v>
+        <v>-114.8</v>
       </c>
       <c r="AA9">
-        <v>233.6</v>
+        <v>128.9</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>253.5</v>
+        <v>122.2</v>
       </c>
       <c r="D10">
-        <v>3997</v>
+        <v>1919</v>
       </c>
       <c r="E10">
-        <v>768</v>
+        <v>404.7</v>
       </c>
       <c r="F10">
-        <v>530.5</v>
+        <v>269.8</v>
       </c>
       <c r="G10">
-        <v>12805.1</v>
+        <v>6795.7</v>
       </c>
       <c r="H10">
-        <v>18627.8</v>
+        <v>8702.5</v>
       </c>
       <c r="I10">
-        <v>838</v>
+        <v>832.8</v>
       </c>
       <c r="J10">
-        <v>150</v>
+        <v>33.9</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>30.4</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,161 +1556,161 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>5820.4</v>
+        <v>1384.3</v>
       </c>
       <c r="O10">
-        <v>12780.9</v>
+        <v>6101.8</v>
       </c>
       <c r="P10">
-        <v>7992.4</v>
+        <v>3599.2</v>
       </c>
       <c r="Q10">
-        <v>-478.1</v>
+        <v>25.2</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>21800</v>
+        <v>16500</v>
       </c>
       <c r="T10">
-        <v>5846.9</v>
+        <v>2600.6999999999998</v>
       </c>
       <c r="U10">
-        <v>1203.2</v>
+        <v>738.1</v>
       </c>
       <c r="V10">
-        <v>602.4</v>
+        <v>129.80000000000001</v>
       </c>
       <c r="W10">
-        <v>-353.6</v>
+        <v>-34.299999999999997</v>
       </c>
       <c r="X10">
-        <v>-170.5</v>
+        <v>48.2</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>-227.9</v>
+        <v>10.5</v>
       </c>
       <c r="AA10">
-        <v>253.5</v>
+        <v>122.2</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>236.1</v>
+        <v>110.8</v>
       </c>
       <c r="D11">
-        <v>3924.3</v>
+        <v>1916.8</v>
       </c>
       <c r="E11">
-        <v>1096</v>
+        <v>500.1</v>
       </c>
       <c r="F11">
-        <v>522</v>
+        <v>251.9</v>
       </c>
       <c r="G11">
-        <v>12972.6</v>
+        <v>7012.8</v>
       </c>
       <c r="H11">
-        <v>18834.099999999999</v>
+        <v>8976.5</v>
       </c>
       <c r="I11">
-        <v>2303</v>
+        <v>1237.9000000000001</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>36.4</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>-458.9</v>
+        <v>-45.5</v>
       </c>
       <c r="M11">
-        <v>-15.4</v>
+        <v>-140.69999999999999</v>
       </c>
       <c r="N11">
-        <v>2740.5</v>
+        <v>1376.8</v>
       </c>
       <c r="O11">
-        <v>12886.2</v>
+        <v>6226.3</v>
       </c>
       <c r="P11">
-        <v>7950.2</v>
+        <v>3667.8</v>
       </c>
       <c r="Q11">
-        <v>-11</v>
+        <v>112.1</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>5947.9</v>
+        <v>2750.2</v>
       </c>
       <c r="U11">
-        <v>1202.0999999999999</v>
+        <v>842.4</v>
       </c>
       <c r="V11">
-        <v>384</v>
+        <v>190.8</v>
       </c>
       <c r="W11">
-        <v>-70.7</v>
+        <v>-94.7</v>
       </c>
       <c r="X11">
-        <v>-37.4</v>
+        <v>-75.599999999999994</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>-19</v>
+        <v>52.5</v>
       </c>
       <c r="AA11">
-        <v>236.1</v>
+        <v>110.8</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>291.60000000000002</v>
+        <v>124.1</v>
       </c>
       <c r="D12">
-        <v>4300.5</v>
+        <v>2012.2</v>
       </c>
       <c r="E12">
-        <v>1015</v>
+        <v>500.7</v>
       </c>
       <c r="F12">
-        <v>598.6</v>
+        <v>267.5</v>
       </c>
       <c r="G12">
-        <v>13187.1</v>
+        <v>7238.9</v>
       </c>
       <c r="H12">
-        <v>19202</v>
+        <v>9310.1</v>
       </c>
       <c r="I12">
-        <v>2422</v>
+        <v>1248.5</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>32.1</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,78 +1722,78 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2858.5</v>
+        <v>3416</v>
       </c>
       <c r="O12">
-        <v>13090.4</v>
+        <v>6360</v>
       </c>
       <c r="P12">
-        <v>7967.4</v>
+        <v>3737.9</v>
       </c>
       <c r="Q12">
-        <v>180.5</v>
+        <v>134.5</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>6111.6</v>
+        <v>2950.1</v>
       </c>
       <c r="U12">
-        <v>1341</v>
+        <v>976.8</v>
       </c>
       <c r="V12">
-        <v>768.6</v>
+        <v>175.6</v>
       </c>
       <c r="W12">
-        <v>-70.7</v>
+        <v>-25.7</v>
       </c>
       <c r="X12">
-        <v>35.4</v>
+        <v>-18</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>-24.1</v>
+        <v>-1.3</v>
       </c>
       <c r="AA12">
-        <v>291.60000000000002</v>
+        <v>124.1</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>309.39999999999998</v>
+        <v>132.5</v>
       </c>
       <c r="D13">
-        <v>4300.1000000000004</v>
+        <v>2058.5</v>
       </c>
       <c r="E13">
-        <v>1093.4000000000001</v>
+        <v>538.79999999999995</v>
       </c>
       <c r="F13">
-        <v>603.70000000000005</v>
+        <v>276.8</v>
       </c>
       <c r="G13">
-        <v>14006.4</v>
+        <v>7387.6</v>
       </c>
       <c r="H13">
-        <v>20311.599999999999</v>
+        <v>9486</v>
       </c>
       <c r="I13">
-        <v>2515.6</v>
+        <v>1360.9</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,78 +1805,78 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>3015.1</v>
+        <v>3331.1</v>
       </c>
       <c r="O13">
-        <v>13830.7</v>
+        <v>6393.9</v>
       </c>
       <c r="P13">
-        <v>8357.4</v>
+        <v>3663.7</v>
       </c>
       <c r="Q13">
-        <v>268.5</v>
+        <v>103.3</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>6480.9</v>
+        <v>3092.1</v>
       </c>
       <c r="U13">
-        <v>1630.4</v>
+        <v>1071.8</v>
       </c>
       <c r="V13">
-        <v>547.70000000000005</v>
+        <v>300.8</v>
       </c>
       <c r="W13">
-        <v>-70.900000000000006</v>
+        <v>-25.6</v>
       </c>
       <c r="X13">
-        <v>221.9</v>
+        <v>-104.6</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>13.1</v>
+        <v>-41.7</v>
       </c>
       <c r="AA13">
-        <v>309.39999999999998</v>
+        <v>132.5</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>334.2</v>
+        <v>159.1</v>
       </c>
       <c r="D14">
-        <v>4598.8999999999996</v>
+        <v>2207.4</v>
       </c>
       <c r="E14">
-        <v>847.6</v>
+        <v>479.1</v>
       </c>
       <c r="F14">
-        <v>664.1</v>
+        <v>316.5</v>
       </c>
       <c r="G14">
-        <v>14032.1</v>
+        <v>7617.6</v>
       </c>
       <c r="H14">
-        <v>20725.5</v>
+        <v>9939.6</v>
       </c>
       <c r="I14">
-        <v>1005.6</v>
+        <v>1000</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,161 +1888,161 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>5350.1</v>
+        <v>1609.1</v>
       </c>
       <c r="O14">
-        <v>14091.2</v>
+        <v>6693.2</v>
       </c>
       <c r="P14">
-        <v>8491.9</v>
+        <v>3827.6</v>
       </c>
       <c r="Q14">
-        <v>39.700000000000003</v>
+        <v>224.1</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>21800</v>
+        <v>17000</v>
       </c>
       <c r="T14">
-        <v>6634.3</v>
+        <v>3246.4</v>
       </c>
       <c r="U14">
-        <v>1657.7</v>
+        <v>1323.2</v>
       </c>
       <c r="V14">
-        <v>675.4</v>
+        <v>111.1</v>
       </c>
       <c r="W14">
-        <v>-70.8</v>
+        <v>-25.9</v>
       </c>
       <c r="X14">
-        <v>53.9</v>
+        <v>67.5</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>-71.2</v>
+        <v>142.80000000000001</v>
       </c>
       <c r="AA14">
-        <v>334.2</v>
+        <v>159.1</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>273.89999999999998</v>
+        <v>182.2</v>
       </c>
       <c r="D15">
-        <v>4379.8999999999996</v>
+        <v>2501.3000000000002</v>
       </c>
       <c r="E15">
-        <v>1186.9000000000001</v>
+        <v>596</v>
       </c>
       <c r="F15">
-        <v>576.20000000000005</v>
+        <v>368.3</v>
       </c>
       <c r="G15">
-        <v>13925.6</v>
+        <v>7797.9</v>
       </c>
       <c r="H15">
-        <v>20597.599999999999</v>
+        <v>10107.1</v>
       </c>
       <c r="I15">
-        <v>2410.1999999999998</v>
+        <v>1488.2</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>-7.9</v>
       </c>
       <c r="M15">
-        <v>-550</v>
+        <v>-155.80000000000001</v>
       </c>
       <c r="N15">
-        <v>2811.7</v>
+        <v>1632.6</v>
       </c>
       <c r="O15">
-        <v>13734.1</v>
+        <v>6716.5</v>
       </c>
       <c r="P15">
-        <v>8289.5</v>
+        <v>3905.7</v>
       </c>
       <c r="Q15">
-        <v>-460.2</v>
+        <v>11.6</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>6863.5</v>
+        <v>3390.6</v>
       </c>
       <c r="U15">
-        <v>1211.2</v>
+        <v>1322.7</v>
       </c>
       <c r="V15">
-        <v>285.7</v>
+        <v>169.4</v>
       </c>
       <c r="W15">
-        <v>-389.7</v>
+        <v>-166.4</v>
       </c>
       <c r="X15">
-        <v>-568.1</v>
+        <v>-68.900000000000006</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>12.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AA15">
-        <v>273.89999999999998</v>
+        <v>182.2</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>319.2</v>
+        <v>236.5</v>
       </c>
       <c r="D16">
-        <v>4569.6000000000004</v>
+        <v>2786.8</v>
       </c>
       <c r="E16">
-        <v>1232.2</v>
+        <v>628.79999999999995</v>
       </c>
       <c r="F16">
-        <v>639.29999999999995</v>
+        <v>439.5</v>
       </c>
       <c r="G16">
-        <v>14143.4</v>
+        <v>8138.1</v>
       </c>
       <c r="H16">
-        <v>20907.400000000001</v>
+        <v>10520.4</v>
       </c>
       <c r="I16">
-        <v>2338.3000000000002</v>
+        <v>1568.3</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,78 +2054,78 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2749.7</v>
+        <v>1732.4</v>
       </c>
       <c r="O16">
-        <v>13748.1</v>
+        <v>7057.9</v>
       </c>
       <c r="P16">
-        <v>8382.2000000000007</v>
+        <v>4137.5</v>
       </c>
       <c r="Q16">
-        <v>90.4</v>
+        <v>-290.60000000000002</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>7159.3</v>
+        <v>3462.5</v>
       </c>
       <c r="U16">
-        <v>1304.8</v>
+        <v>1029.5</v>
       </c>
       <c r="V16">
-        <v>555.1</v>
+        <v>280.7</v>
       </c>
       <c r="W16">
-        <v>-78.099999999999994</v>
+        <v>-34.9</v>
       </c>
       <c r="X16">
-        <v>2.4</v>
+        <v>125.7</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>-82.6</v>
+        <v>-339.5</v>
       </c>
       <c r="AA16">
-        <v>319.2</v>
+        <v>236.5</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>371.4</v>
+        <v>246.7</v>
       </c>
       <c r="D17">
-        <v>4928.3999999999996</v>
+        <v>2917.8</v>
       </c>
       <c r="E17">
-        <v>1313.4</v>
+        <v>656.3</v>
       </c>
       <c r="F17">
-        <v>713.1</v>
+        <v>439.9</v>
       </c>
       <c r="G17">
-        <v>14511.6</v>
+        <v>8692.7999999999993</v>
       </c>
       <c r="H17">
-        <v>21026.1</v>
+        <v>11178.3</v>
       </c>
       <c r="I17">
-        <v>2597</v>
+        <v>1683.6</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>26.5</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,78 +2137,78 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>3026.4</v>
+        <v>4408.3999999999996</v>
       </c>
       <c r="O17">
-        <v>13863.4</v>
+        <v>7456.3</v>
       </c>
       <c r="P17">
-        <v>8266.6</v>
+        <v>4384.2</v>
       </c>
       <c r="Q17">
-        <v>268.10000000000002</v>
+        <v>207.7</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>7162.7</v>
+        <v>3722</v>
       </c>
       <c r="U17">
-        <v>1540</v>
+        <v>1219.5</v>
       </c>
       <c r="V17">
-        <v>760.8</v>
+        <v>253.1</v>
       </c>
       <c r="W17">
-        <v>-78</v>
+        <v>-34.799999999999997</v>
       </c>
       <c r="X17">
-        <v>-10.1</v>
+        <v>166.1</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>-58.1</v>
+        <v>22.8</v>
       </c>
       <c r="AA17">
-        <v>371.4</v>
+        <v>246.7</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>394.3</v>
+        <v>241.4</v>
       </c>
       <c r="D18">
-        <v>5119.1000000000004</v>
+        <v>3190.4</v>
       </c>
       <c r="E18">
-        <v>882.1</v>
+        <v>538.70000000000005</v>
       </c>
       <c r="F18">
-        <v>753</v>
+        <v>485.8</v>
       </c>
       <c r="G18">
-        <v>14420.6</v>
+        <v>9473.2000000000007</v>
       </c>
       <c r="H18">
-        <v>20618.8</v>
+        <v>12228</v>
       </c>
       <c r="I18">
-        <v>1167.5999999999999</v>
+        <v>1417.4</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>27.8</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,161 +2220,161 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>5669.5</v>
+        <v>2299.4</v>
       </c>
       <c r="O18">
-        <v>13865.6</v>
+        <v>8465.6</v>
       </c>
       <c r="P18">
-        <v>8276.2999999999993</v>
+        <v>4824.8</v>
       </c>
       <c r="Q18">
-        <v>89.2</v>
+        <v>339</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>23300</v>
+        <v>20500</v>
       </c>
       <c r="T18">
-        <v>6753.2</v>
+        <v>3762.4</v>
       </c>
       <c r="U18">
-        <v>1665.1</v>
+        <v>1579.3</v>
       </c>
       <c r="V18">
-        <v>522</v>
+        <v>187.8</v>
       </c>
       <c r="W18">
-        <v>-78</v>
+        <v>-34.799999999999997</v>
       </c>
       <c r="X18">
-        <v>55.3</v>
+        <v>293.39999999999998</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>3.3</v>
+        <v>146</v>
       </c>
       <c r="AA18">
-        <v>394.3</v>
+        <v>241.4</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>378.4</v>
+        <v>274</v>
       </c>
       <c r="D19">
-        <v>4832.7</v>
+        <v>3326</v>
       </c>
       <c r="E19">
-        <v>1304.5</v>
+        <v>648.4</v>
       </c>
       <c r="F19">
-        <v>726.8</v>
+        <v>512.20000000000005</v>
       </c>
       <c r="G19">
-        <v>14433.4</v>
+        <v>9578.2000000000007</v>
       </c>
       <c r="H19">
-        <v>20326.8</v>
+        <v>12348.8</v>
       </c>
       <c r="I19">
-        <v>2498.3000000000002</v>
+        <v>1947.9</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>27.7</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>-347.9</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>-20.2</v>
+        <v>-200.3</v>
       </c>
       <c r="N19">
-        <v>2963.1</v>
+        <v>4803.3999999999996</v>
       </c>
       <c r="O19">
-        <v>13595.2</v>
+        <v>8417.7999999999993</v>
       </c>
       <c r="P19">
-        <v>8250.5</v>
+        <v>4981.8999999999996</v>
       </c>
       <c r="Q19">
-        <v>-172.9</v>
+        <v>-185.3</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>6731.6</v>
+        <v>3931</v>
       </c>
       <c r="U19">
-        <v>1487.3</v>
+        <v>1389.3</v>
       </c>
       <c r="V19">
-        <v>476.2</v>
+        <v>184.1</v>
       </c>
       <c r="W19">
-        <v>-432.4</v>
+        <v>-382.6</v>
       </c>
       <c r="X19">
-        <v>-239.9</v>
+        <v>-188</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>-45.8</v>
+        <v>153.19999999999999</v>
       </c>
       <c r="AA19">
-        <v>378.4</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>447.2</v>
+        <v>241.5</v>
       </c>
       <c r="D20">
-        <v>5079.8999999999996</v>
+        <v>3555.4</v>
       </c>
       <c r="E20">
-        <v>1228.0999999999999</v>
+        <v>740.4</v>
       </c>
       <c r="F20">
-        <v>815.7</v>
+        <v>546.4</v>
       </c>
       <c r="G20">
-        <v>15290.4</v>
+        <v>9880.2999999999993</v>
       </c>
       <c r="H20">
-        <v>21415.3</v>
+        <v>12656.1</v>
       </c>
       <c r="I20">
-        <v>2642.9</v>
+        <v>2060.6999999999998</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>19.2</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,78 +2386,78 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>3114</v>
+        <v>5251.9</v>
       </c>
       <c r="O20">
-        <v>14196.7</v>
+        <v>8774.7999999999993</v>
       </c>
       <c r="P20">
-        <v>8641.6</v>
+        <v>5278.7</v>
       </c>
       <c r="Q20">
-        <v>398.4</v>
+        <v>-206.2</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>7218.6</v>
+        <v>3881.3</v>
       </c>
       <c r="U20">
-        <v>1877.7</v>
+        <v>1158.9000000000001</v>
       </c>
       <c r="V20">
-        <v>710.9</v>
+        <v>333.4</v>
       </c>
       <c r="W20">
-        <v>-78.099999999999994</v>
+        <v>-36</v>
       </c>
       <c r="X20">
-        <v>245.2</v>
+        <v>184.4</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>-148.6</v>
+        <v>-212</v>
       </c>
       <c r="AA20">
-        <v>447.2</v>
+        <v>241.5</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>431.2</v>
+        <v>304.8</v>
       </c>
       <c r="D21">
-        <v>4847.2</v>
+        <v>3541</v>
       </c>
       <c r="E21">
-        <v>1118</v>
+        <v>775</v>
       </c>
       <c r="F21">
-        <v>787.8</v>
+        <v>550.1</v>
       </c>
       <c r="G21">
-        <v>15361</v>
+        <v>10156.6</v>
       </c>
       <c r="H21">
-        <v>21519.8</v>
+        <v>13043.5</v>
       </c>
       <c r="I21">
-        <v>2520.1999999999998</v>
+        <v>1982.4</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>20.2</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,78 +2469,78 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2915.2</v>
+        <v>5480.8</v>
       </c>
       <c r="O21">
-        <v>14176</v>
+        <v>9015.5</v>
       </c>
       <c r="P21">
-        <v>8741.6</v>
+        <v>5597.2</v>
       </c>
       <c r="Q21">
-        <v>163</v>
+        <v>-63.4</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>7343.8</v>
+        <v>4028</v>
       </c>
       <c r="U21">
-        <v>2051.9</v>
+        <v>1119.5999999999999</v>
       </c>
       <c r="V21">
-        <v>664.1</v>
+        <v>160.9</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>-36</v>
       </c>
       <c r="X21">
-        <v>19.600000000000001</v>
+        <v>95.7</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>-21.7</v>
+        <v>42.9</v>
       </c>
       <c r="AA21">
-        <v>431.2</v>
+        <v>304.8</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>347.2</v>
+        <v>312.89999999999998</v>
       </c>
       <c r="D22">
-        <v>4355.3</v>
+        <v>3635</v>
       </c>
       <c r="E22">
-        <v>739.2</v>
+        <v>582.20000000000005</v>
       </c>
       <c r="F22">
-        <v>683</v>
+        <v>549.1</v>
       </c>
       <c r="G22">
-        <v>14836.4</v>
+        <v>10845.4</v>
       </c>
       <c r="H22">
-        <v>21109.8</v>
+        <v>13715.4</v>
       </c>
       <c r="I22">
-        <v>929.7</v>
+        <v>1444.4</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>20.2</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,161 +2552,161 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>5693.9</v>
+        <v>2351.1</v>
       </c>
       <c r="O22">
-        <v>14169.4</v>
+        <v>9814.2999999999993</v>
       </c>
       <c r="P22">
-        <v>8638.2000000000007</v>
+        <v>6254.9</v>
       </c>
       <c r="Q22">
-        <v>-109.7</v>
+        <v>539.1</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>23000</v>
+        <v>21900</v>
       </c>
       <c r="T22">
-        <v>6940.4</v>
+        <v>3901.1</v>
       </c>
       <c r="U22">
-        <v>1929.9</v>
+        <v>1624.4</v>
       </c>
       <c r="V22">
-        <v>704.8</v>
+        <v>308.39999999999998</v>
       </c>
       <c r="W22">
-        <v>-439.38299999999998</v>
+        <v>-42.3</v>
       </c>
       <c r="X22">
-        <v>-221.4</v>
+        <v>628.9</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>-78.2</v>
+        <v>-21.4</v>
       </c>
       <c r="AA22">
-        <v>347.2</v>
+        <v>312.89999999999998</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>-594.6</v>
+        <v>342</v>
       </c>
       <c r="D23">
-        <v>4300</v>
+        <v>3851.7</v>
       </c>
       <c r="E23">
-        <v>1066.0999999999999</v>
+        <v>827.4</v>
       </c>
       <c r="F23">
-        <v>677.3</v>
+        <v>595.1</v>
       </c>
       <c r="G23">
-        <v>14866.5</v>
+        <v>11139.4</v>
       </c>
       <c r="H23">
-        <v>21356.9</v>
+        <v>14142.4</v>
       </c>
       <c r="I23">
-        <v>2361.6</v>
+        <v>2158.6999999999998</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>20.3</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>-117.9</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>-500</v>
+        <v>-295.7</v>
       </c>
       <c r="N23">
-        <v>3737.6</v>
+        <v>6090.2</v>
       </c>
       <c r="O23">
-        <v>15013.7</v>
+        <v>10066.700000000001</v>
       </c>
       <c r="P23">
-        <v>8632.1</v>
+        <v>6450.3</v>
       </c>
       <c r="Q23">
-        <v>-169.1</v>
+        <v>-308.7</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>6343.2</v>
+        <v>4075.7</v>
       </c>
       <c r="U23">
-        <v>1765</v>
+        <v>1320.7</v>
       </c>
       <c r="V23">
-        <v>795.8</v>
+        <v>479.4</v>
       </c>
       <c r="W23">
-        <v>-128.19999999999999</v>
+        <v>-380.8</v>
       </c>
       <c r="X23">
-        <v>-722.9</v>
+        <v>-385.1</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>14</v>
+        <v>-173.4</v>
       </c>
       <c r="AA23">
-        <v>-594.6</v>
+        <v>342</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>481.3</v>
+        <v>369.9</v>
       </c>
       <c r="D24">
-        <v>4413.2</v>
+        <v>4168</v>
       </c>
       <c r="E24">
-        <v>1070.2</v>
+        <v>878.5</v>
       </c>
       <c r="F24">
-        <v>703.7</v>
+        <v>642.4</v>
       </c>
       <c r="G24">
-        <v>14815.8</v>
+        <v>11540.9</v>
       </c>
       <c r="H24">
-        <v>21427.200000000001</v>
+        <v>14741.9</v>
       </c>
       <c r="I24">
-        <v>2337.1</v>
+        <v>2172.1999999999998</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>21.2</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,78 +2718,78 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>3603.9</v>
+        <v>5878.2</v>
       </c>
       <c r="O24">
-        <v>14717.5</v>
+        <v>10320.799999999999</v>
       </c>
       <c r="P24">
-        <v>8497.6</v>
+        <v>6605.5</v>
       </c>
       <c r="Q24">
-        <v>217.6</v>
+        <v>-31.5</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>6709.7</v>
+        <v>4421.1000000000004</v>
       </c>
       <c r="U24">
-        <v>1970.9</v>
+        <v>1309.9000000000001</v>
       </c>
       <c r="V24">
-        <v>853.6</v>
+        <v>456.1</v>
       </c>
       <c r="W24">
-        <v>-532.79999999999995</v>
+        <v>-50</v>
       </c>
       <c r="X24">
-        <v>-118.9</v>
+        <v>-53.5</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>14.5</v>
+        <v>-48.5</v>
       </c>
       <c r="AA24">
-        <v>481.3</v>
+        <v>369.9</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>346.2</v>
+        <v>403.6</v>
       </c>
       <c r="D25">
-        <v>4249.3999999999996</v>
+        <v>4205.3999999999996</v>
       </c>
       <c r="E25">
-        <v>1025.9000000000001</v>
+        <v>926.8</v>
       </c>
       <c r="F25">
-        <v>652.70000000000005</v>
+        <v>661</v>
       </c>
       <c r="G25">
-        <v>14134</v>
+        <v>12203.3</v>
       </c>
       <c r="H25">
-        <v>20968.900000000001</v>
+        <v>15457.9</v>
       </c>
       <c r="I25">
-        <v>2295.1999999999998</v>
+        <v>2334.6</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>21.1</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,78 +2801,78 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2735.8</v>
+        <v>6208.5</v>
       </c>
       <c r="O25">
-        <v>13990.7</v>
+        <v>10744.1</v>
       </c>
       <c r="P25">
-        <v>8594.6</v>
+        <v>6936.3</v>
       </c>
       <c r="Q25">
-        <v>-277</v>
+        <v>250.2</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>6978.2</v>
+        <v>4713.8</v>
       </c>
       <c r="U25">
-        <v>1722.3</v>
+        <v>1553.2</v>
       </c>
       <c r="V25">
-        <v>-158.9</v>
+        <v>365.6</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>-49.9</v>
       </c>
       <c r="X25">
-        <v>9.8000000000000007</v>
+        <v>226.2</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>342.2</v>
+        <v>-12.1</v>
       </c>
       <c r="AA25">
-        <v>346.2</v>
+        <v>403.6</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>288.8</v>
+        <v>380.5</v>
       </c>
       <c r="D26">
-        <v>4070.7</v>
+        <v>4229</v>
       </c>
       <c r="E26">
-        <v>734.6</v>
+        <v>665</v>
       </c>
       <c r="F26">
-        <v>601.70000000000005</v>
+        <v>815.6</v>
       </c>
       <c r="G26">
-        <v>14115.9</v>
+        <v>12788.4</v>
       </c>
       <c r="H26">
-        <v>20638.900000000001</v>
+        <v>16107.4</v>
       </c>
       <c r="I26">
-        <v>938.6</v>
+        <v>1779.7</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>20.2</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,78 +2884,78 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>5029.8</v>
+        <v>7203.3</v>
       </c>
       <c r="O26">
-        <v>13861.3</v>
+        <v>11651.2</v>
       </c>
       <c r="P26">
-        <v>8521.6</v>
+        <v>7280</v>
       </c>
       <c r="Q26">
-        <v>127.8</v>
+        <v>243.6</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>23000</v>
+        <v>21000</v>
       </c>
       <c r="T26">
-        <v>6777.6</v>
+        <v>4456.2</v>
       </c>
       <c r="U26">
-        <v>1781.7</v>
+        <v>1806.3</v>
       </c>
       <c r="V26">
-        <v>810.3</v>
+        <v>551.6</v>
       </c>
       <c r="W26">
-        <v>-427.41</v>
+        <v>-49.7</v>
       </c>
       <c r="X26">
-        <v>8.5</v>
+        <v>254.9</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>-97.8</v>
+        <v>1.2</v>
       </c>
       <c r="AA26">
-        <v>288.8</v>
+        <v>380.5</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>310.3</v>
+        <v>365.6</v>
       </c>
       <c r="D27">
-        <v>4237.8999999999996</v>
+        <v>3984.5</v>
       </c>
       <c r="E27">
-        <v>1145.5999999999999</v>
+        <v>811.1</v>
       </c>
       <c r="F27">
-        <v>601.6</v>
+        <v>650.79999999999995</v>
       </c>
       <c r="G27">
-        <v>14178</v>
+        <v>12751.3</v>
       </c>
       <c r="H27">
-        <v>21039.7</v>
+        <v>16109.7</v>
       </c>
       <c r="I27">
-        <v>2374.6999999999998</v>
+        <v>2251</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>20.3</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2844,81 +2964,81 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-599.6</v>
+        <v>-165.9</v>
       </c>
       <c r="N27">
-        <v>2834.7</v>
+        <v>2490.1</v>
       </c>
       <c r="O27">
-        <v>13960.4</v>
+        <v>11352.7</v>
       </c>
       <c r="P27">
-        <v>8415.4</v>
+        <v>7450.6</v>
       </c>
       <c r="Q27">
-        <v>-151.30000000000001</v>
+        <v>-477.3</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>7079.3</v>
+        <v>4757</v>
       </c>
       <c r="U27">
-        <v>1688.3</v>
+        <v>1327.2</v>
       </c>
       <c r="V27">
-        <v>610.5</v>
+        <v>412.8</v>
       </c>
       <c r="W27">
-        <v>-146.1712</v>
+        <v>-546.70000000000005</v>
       </c>
       <c r="X27">
-        <v>-445.7</v>
+        <v>-432.5</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>-60.3</v>
+        <v>-194.5</v>
       </c>
       <c r="AA27">
-        <v>310.3</v>
+        <v>365.6</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>373</v>
+        <v>298.3</v>
       </c>
       <c r="D28">
-        <v>4704.2</v>
+        <v>3716.2</v>
       </c>
       <c r="E28">
-        <v>1281</v>
+        <v>784.7</v>
       </c>
       <c r="F28">
-        <v>696.3</v>
+        <v>585.79999999999995</v>
       </c>
       <c r="G28">
-        <v>15092.5</v>
+        <v>12916.2</v>
       </c>
       <c r="H28">
-        <v>22053.3</v>
+        <v>16464.099999999999</v>
       </c>
       <c r="I28">
-        <v>2548.1999999999998</v>
+        <v>2183.1999999999998</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>22.1</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,78 +3050,78 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>3092.4</v>
+        <v>6732</v>
       </c>
       <c r="O28">
-        <v>14552.8</v>
+        <v>11371.2</v>
       </c>
       <c r="P28">
-        <v>8616.7999999999993</v>
+        <v>7521.4</v>
       </c>
       <c r="Q28">
-        <v>115.4</v>
+        <v>39</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>7500.5</v>
+        <v>5092.8999999999996</v>
       </c>
       <c r="U28">
-        <v>1760.1</v>
+        <v>1369.7</v>
       </c>
       <c r="V28">
-        <v>574.70000000000005</v>
+        <v>569.79999999999995</v>
       </c>
       <c r="W28">
-        <v>-236.3288</v>
+        <v>-62.2</v>
       </c>
       <c r="X28">
-        <v>-62.1</v>
+        <v>-108.5</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>-16</v>
+        <v>-49.8</v>
       </c>
       <c r="AA28">
-        <v>373</v>
+        <v>298.3</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>402.7</v>
+        <v>302.3</v>
       </c>
       <c r="D29">
-        <v>5059.7</v>
+        <v>3761.7</v>
       </c>
       <c r="E29">
-        <v>1323.8</v>
+        <v>746.8</v>
       </c>
       <c r="F29">
-        <v>746.5</v>
+        <v>591.29999999999995</v>
       </c>
       <c r="G29">
-        <v>15910.6</v>
+        <v>13193.6</v>
       </c>
       <c r="H29">
-        <v>23103.9</v>
+        <v>17014.8</v>
       </c>
       <c r="I29">
-        <v>2754.9</v>
+        <v>2349.5</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,78 +3133,78 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>3325.8</v>
+        <v>6932.6</v>
       </c>
       <c r="O29">
-        <v>15168.3</v>
+        <v>11819</v>
       </c>
       <c r="P29">
-        <v>8923.2999999999993</v>
+        <v>7723.6</v>
       </c>
       <c r="Q29">
-        <v>433.5</v>
+        <v>184.4</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>7935.6</v>
+        <v>5195.8</v>
       </c>
       <c r="U29">
-        <v>2205.3000000000002</v>
+        <v>1513.4</v>
       </c>
       <c r="V29">
-        <v>637.29999999999995</v>
+        <v>476.6</v>
       </c>
       <c r="W29">
-        <v>0</v>
+        <v>-61.5</v>
       </c>
       <c r="X29">
-        <v>138.5</v>
+        <v>-288.39999999999998</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>41.5</v>
+        <v>253.8</v>
       </c>
       <c r="AA29">
-        <v>402.7</v>
+        <v>302.3</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>589.20000000000005</v>
+        <v>261.10000000000002</v>
       </c>
       <c r="D30">
-        <v>5454.6</v>
+        <v>3759.3</v>
       </c>
       <c r="E30">
-        <v>962</v>
+        <v>652</v>
       </c>
       <c r="F30">
-        <v>775.9</v>
+        <v>569.29999999999995</v>
       </c>
       <c r="G30">
-        <v>16177.8</v>
+        <v>13147.9</v>
       </c>
       <c r="H30">
-        <v>23440.2</v>
+        <v>17310.2</v>
       </c>
       <c r="I30">
-        <v>1154.7</v>
+        <v>959.7</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>23.6</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,78 +3216,78 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>6404.8</v>
+        <v>6950.7</v>
       </c>
       <c r="O30">
-        <v>15389.7</v>
+        <v>12297.1</v>
       </c>
       <c r="P30">
-        <v>8977.7000000000007</v>
+        <v>7875.8</v>
       </c>
       <c r="Q30">
-        <v>51.4</v>
+        <v>259.5</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>25000</v>
+        <v>21800</v>
       </c>
       <c r="T30">
-        <v>8050.5</v>
+        <v>5013.1000000000004</v>
       </c>
       <c r="U30">
-        <v>2254.8000000000002</v>
+        <v>1736.5</v>
       </c>
       <c r="V30">
-        <v>893.3</v>
+        <v>596.20000000000005</v>
       </c>
       <c r="W30">
-        <v>-27.526869999999999</v>
+        <v>-66.3</v>
       </c>
       <c r="X30">
-        <v>-24.5</v>
+        <v>-9.1</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>-156</v>
+        <v>53.1</v>
       </c>
       <c r="AA30">
-        <v>589.20000000000005</v>
+        <v>261.10000000000002</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>512.1</v>
+        <v>292.3</v>
       </c>
       <c r="D31">
-        <v>5654</v>
+        <v>3938.4</v>
       </c>
       <c r="E31">
-        <v>1468.8</v>
+        <v>750.4</v>
       </c>
       <c r="F31">
-        <v>853.8</v>
+        <v>609</v>
       </c>
       <c r="G31">
-        <v>16860.3</v>
+        <v>13155.1</v>
       </c>
       <c r="H31">
-        <v>23781.7</v>
+        <v>17578.8</v>
       </c>
       <c r="I31">
-        <v>3013.6</v>
+        <v>2464.9</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3176,81 +3296,81 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-508.2</v>
+        <v>-287.2</v>
       </c>
       <c r="N31">
-        <v>3801.2</v>
+        <v>7148.4</v>
       </c>
       <c r="O31">
-        <v>15214.4</v>
+        <v>12377.7</v>
       </c>
       <c r="P31">
-        <v>9238.2000000000007</v>
+        <v>7981.9</v>
       </c>
       <c r="Q31">
-        <v>139.4</v>
+        <v>-118.5</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>8567.2999999999993</v>
+        <v>5201.1000000000004</v>
       </c>
       <c r="U31">
-        <v>2425.5</v>
+        <v>1666.7</v>
       </c>
       <c r="V31">
-        <v>525.29999999999995</v>
+        <v>367</v>
       </c>
       <c r="W31">
-        <v>-87.948279999999997</v>
+        <v>-433</v>
       </c>
       <c r="X31">
-        <v>-339.3</v>
+        <v>-597.20000000000005</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>320.10000000000002</v>
+        <v>148.6</v>
       </c>
       <c r="AA31">
-        <v>512.1</v>
+        <v>292.3</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>559.6</v>
+        <v>313.5</v>
       </c>
       <c r="D32">
-        <v>5805.2</v>
+        <v>4112.5</v>
       </c>
       <c r="E32">
-        <v>1546.9</v>
+        <v>827.7</v>
       </c>
       <c r="F32">
-        <v>892.3</v>
+        <v>639.4</v>
       </c>
       <c r="G32">
-        <v>17339.2</v>
+        <v>13396.5</v>
       </c>
       <c r="H32">
-        <v>24155.8</v>
+        <v>18010.5</v>
       </c>
       <c r="I32">
-        <v>3094.2</v>
+        <v>2621.3000000000002</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,78 +3382,78 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>3894.2</v>
+        <v>6476</v>
       </c>
       <c r="O32">
-        <v>15376.4</v>
+        <v>12593.9</v>
       </c>
       <c r="P32">
-        <v>9236.1</v>
+        <v>8063</v>
       </c>
       <c r="Q32">
-        <v>2.7</v>
+        <v>-51.6</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>8779.4</v>
+        <v>5416.6</v>
       </c>
       <c r="U32">
-        <v>2411.5</v>
+        <v>1617.1</v>
       </c>
       <c r="V32">
-        <v>673.2</v>
+        <v>386.6</v>
       </c>
       <c r="W32">
-        <v>-98.399720000000002</v>
+        <v>-65.599999999999994</v>
       </c>
       <c r="X32">
-        <v>60.7</v>
+        <v>-66.8</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>-3.2</v>
+        <v>41.7</v>
       </c>
       <c r="AA32">
-        <v>559.6</v>
+        <v>313.5</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>545.29999999999995</v>
+        <v>299</v>
       </c>
       <c r="D33">
-        <v>5756.8</v>
+        <v>4004.9</v>
       </c>
       <c r="E33">
-        <v>1608.6</v>
+        <v>791.1</v>
       </c>
       <c r="F33">
-        <v>842.1</v>
+        <v>617.29999999999995</v>
       </c>
       <c r="G33">
-        <v>18071.5</v>
+        <v>12755.9</v>
       </c>
       <c r="H33">
-        <v>25103.4</v>
+        <v>17231.8</v>
       </c>
       <c r="I33">
-        <v>3229.4</v>
+        <v>2483.5</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>22.1</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,78 +3465,78 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>3842.9</v>
+        <v>6247.9</v>
       </c>
       <c r="O33">
-        <v>15932.4</v>
+        <v>11892.5</v>
       </c>
       <c r="P33">
-        <v>9615.5</v>
+        <v>7606.6</v>
       </c>
       <c r="Q33">
-        <v>407.2</v>
+        <v>-292.3</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>9171</v>
+        <v>5339.3</v>
       </c>
       <c r="U33">
-        <v>2792</v>
+        <v>1346.4</v>
       </c>
       <c r="V33">
-        <v>728.7</v>
+        <v>205.9</v>
       </c>
       <c r="W33">
-        <v>-98.1</v>
+        <v>-65.3</v>
       </c>
       <c r="X33">
-        <v>214.9</v>
+        <v>-174.3</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>26.3</v>
+        <v>19.3</v>
       </c>
       <c r="AA33">
-        <v>545.29999999999995</v>
+        <v>299</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>578.1</v>
+        <v>113.1</v>
       </c>
       <c r="D34">
-        <v>6279.7</v>
+        <v>2916.7</v>
       </c>
       <c r="E34">
-        <v>1103.5999999999999</v>
+        <v>698.7</v>
       </c>
       <c r="F34">
-        <v>931.3</v>
+        <v>348.8</v>
       </c>
       <c r="G34">
-        <v>18483.5</v>
+        <v>11735.5</v>
       </c>
       <c r="H34">
-        <v>25482.400000000001</v>
+        <v>16249.8</v>
       </c>
       <c r="I34">
-        <v>1304.9000000000001</v>
+        <v>617.9</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>19.3</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,161 +3548,161 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>7669.5</v>
+        <v>5460.8</v>
       </c>
       <c r="O34">
-        <v>16889.5</v>
+        <v>11403.1</v>
       </c>
       <c r="P34">
-        <v>9969</v>
+        <v>7484.8</v>
       </c>
       <c r="Q34">
-        <v>521.9</v>
+        <v>559.5</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>28000</v>
+        <v>18700</v>
       </c>
       <c r="T34">
-        <v>8592.9</v>
+        <v>4846.7</v>
       </c>
       <c r="U34">
-        <v>3279.2</v>
+        <v>1899.2</v>
       </c>
       <c r="V34">
-        <v>1065.0999999999999</v>
+        <v>345.4</v>
       </c>
       <c r="W34">
-        <v>-273.85199999999998</v>
+        <v>-65.3</v>
       </c>
       <c r="X34">
-        <v>134.80000000000001</v>
+        <v>-29.8</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>-27.6</v>
+        <v>362.5</v>
       </c>
       <c r="AA34">
-        <v>578.1</v>
+        <v>113.1</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>629</v>
+        <v>26.3</v>
       </c>
       <c r="D35">
-        <v>6487.6</v>
+        <v>1986.2</v>
       </c>
       <c r="E35">
-        <v>1736.2</v>
+        <v>650.70000000000005</v>
       </c>
       <c r="F35">
-        <v>1005</v>
+        <v>184.6</v>
       </c>
       <c r="G35">
-        <v>18989.900000000001</v>
+        <v>10845.5</v>
       </c>
       <c r="H35">
-        <v>26157</v>
+        <v>15068.1</v>
       </c>
       <c r="I35">
-        <v>3484.8</v>
+        <v>1462.5</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>168.6</v>
       </c>
       <c r="K35">
         <v>0</v>
       </c>
       <c r="L35">
-        <v>-113.9</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>-250</v>
+        <v>-1258.9000000000001</v>
       </c>
       <c r="N35">
-        <v>4324.5</v>
+        <v>4306.8999999999996</v>
       </c>
       <c r="O35">
-        <v>17051.5</v>
+        <v>10336.799999999999</v>
       </c>
       <c r="P35">
-        <v>10259.200000000001</v>
+        <v>7029</v>
       </c>
       <c r="Q35">
-        <v>-593.29999999999995</v>
+        <v>-30.3</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>9105.5</v>
+        <v>4731.3</v>
       </c>
       <c r="U35">
-        <v>2733.1</v>
+        <v>1849.8</v>
       </c>
       <c r="V35">
-        <v>363</v>
+        <v>90.8</v>
       </c>
       <c r="W35">
-        <v>-98.995000000000005</v>
+        <v>-101.3</v>
       </c>
       <c r="X35">
-        <v>-550.29999999999995</v>
+        <v>-410.4</v>
       </c>
       <c r="Y35">
-        <v>30.4</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>-56</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="AA35">
-        <v>629</v>
+        <v>26.3</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>619.70000000000005</v>
+        <v>26.5</v>
       </c>
       <c r="D36">
-        <v>6627.9</v>
+        <v>1848.9</v>
       </c>
       <c r="E36">
-        <v>1711.2</v>
+        <v>671.5</v>
       </c>
       <c r="F36">
-        <v>1005.1</v>
+        <v>125.1</v>
       </c>
       <c r="G36">
-        <v>19761.400000000001</v>
+        <v>10648.2</v>
       </c>
       <c r="H36">
-        <v>27168.2</v>
+        <v>14922.5</v>
       </c>
       <c r="I36">
-        <v>3448.1</v>
+        <v>1480.3</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>170.2</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3714,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>4264.3999999999996</v>
+        <v>4721.8</v>
       </c>
       <c r="O36">
-        <v>17532.8</v>
+        <v>10006.5</v>
       </c>
       <c r="P36">
-        <v>10704.6</v>
+        <v>6681.8</v>
       </c>
       <c r="Q36">
-        <v>376.8</v>
+        <v>-55.2</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>9635.4</v>
+        <v>4916</v>
       </c>
       <c r="U36">
-        <v>3063.9</v>
+        <v>1795.8</v>
       </c>
       <c r="V36">
-        <v>826.5</v>
+        <v>319.2</v>
       </c>
       <c r="W36">
-        <v>-110.9</v>
+        <v>-65.400000000000006</v>
       </c>
       <c r="X36">
-        <v>268.3</v>
+        <v>-603.4</v>
       </c>
       <c r="Y36">
-        <v>29.3</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>-31.8</v>
+        <v>12.3</v>
       </c>
       <c r="AA36">
-        <v>619.70000000000005</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>607.9</v>
+        <v>13</v>
       </c>
       <c r="D37">
-        <v>6367</v>
+        <v>2011</v>
       </c>
       <c r="E37">
-        <v>1729</v>
+        <v>655.4</v>
       </c>
       <c r="F37">
-        <v>963.9</v>
+        <v>130.1</v>
       </c>
       <c r="G37">
-        <v>20371</v>
+        <v>10391.700000000001</v>
       </c>
       <c r="H37">
-        <v>27767.7</v>
+        <v>14797.4</v>
       </c>
       <c r="I37">
-        <v>3521.2</v>
+        <v>1505.7</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>171.9</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3797,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>4278.2</v>
+        <v>5020.8999999999996</v>
       </c>
       <c r="O37">
-        <v>17805</v>
+        <v>9764.5</v>
       </c>
       <c r="P37">
-        <v>10925.2</v>
+        <v>6370.3</v>
       </c>
       <c r="Q37">
-        <v>450.1</v>
+        <v>-70.5</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>9962.7000000000007</v>
+        <v>5032.8999999999996</v>
       </c>
       <c r="U37">
-        <v>3535.2</v>
+        <v>1743.9</v>
       </c>
       <c r="V37">
-        <v>727.1</v>
+        <v>454</v>
       </c>
       <c r="W37">
-        <v>-123.44499999999999</v>
+        <v>-32.700000000000003</v>
       </c>
       <c r="X37">
-        <v>193.3</v>
+        <v>-490</v>
       </c>
       <c r="Y37">
-        <v>27.4</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>-2.8</v>
+        <v>-74.3</v>
       </c>
       <c r="AA37">
-        <v>607.9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>531.29999999999995</v>
+        <v>46.1</v>
       </c>
       <c r="D38">
-        <v>6117.2</v>
+        <v>2240.4</v>
       </c>
       <c r="E38">
-        <v>1055</v>
+        <v>554.70000000000005</v>
       </c>
       <c r="F38">
-        <v>889</v>
+        <v>256.10000000000002</v>
       </c>
       <c r="G38">
-        <v>20733.3</v>
+        <v>10051.799999999999</v>
       </c>
       <c r="H38">
-        <v>28361.1</v>
+        <v>14569</v>
       </c>
       <c r="I38">
-        <v>1115.7</v>
+        <v>622.5</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>172.3</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,161 +3880,161 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>8619.6</v>
+        <v>4400.8</v>
       </c>
       <c r="O38">
-        <v>18655</v>
+        <v>9465.2999999999993</v>
       </c>
       <c r="P38">
-        <v>11292.6</v>
+        <v>6188.9</v>
       </c>
       <c r="Q38">
-        <v>505.6</v>
+        <v>112.8</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>27000</v>
+        <v>15200</v>
       </c>
       <c r="T38">
-        <v>9706.1</v>
+        <v>5103.7</v>
       </c>
       <c r="U38">
-        <v>4007.3</v>
+        <v>1836.5</v>
       </c>
       <c r="V38">
-        <v>943.7</v>
+        <v>509.3</v>
       </c>
       <c r="W38">
-        <v>-805.26</v>
+        <v>-32.700000000000003</v>
       </c>
       <c r="X38">
-        <v>172.1</v>
+        <v>-312.39999999999998</v>
       </c>
       <c r="Y38">
-        <v>23.7</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>-44.5</v>
+        <v>21.4</v>
       </c>
       <c r="AA38">
-        <v>531.29999999999995</v>
+        <v>46.1</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>359.4</v>
+        <v>68.3</v>
       </c>
       <c r="D39">
-        <v>5161.7</v>
+        <v>2230.6999999999998</v>
       </c>
       <c r="E39">
-        <v>1277</v>
+        <v>576.4</v>
       </c>
       <c r="F39">
-        <v>636.70000000000005</v>
+        <v>244.6</v>
       </c>
       <c r="G39">
-        <v>19755.8</v>
+        <v>9640.9</v>
       </c>
       <c r="H39">
-        <v>27294.7</v>
+        <v>13990</v>
       </c>
       <c r="I39">
-        <v>3206.5</v>
+        <v>1425</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>173.1</v>
       </c>
       <c r="K39">
         <v>0</v>
       </c>
       <c r="L39">
-        <v>-133.5</v>
+        <v>0</v>
       </c>
       <c r="M39">
-        <v>-467.6</v>
+        <v>-334.8</v>
       </c>
       <c r="N39">
-        <v>3914.2</v>
+        <v>4315.2</v>
       </c>
       <c r="O39">
-        <v>17657.3</v>
+        <v>8897.4</v>
       </c>
       <c r="P39">
-        <v>11191.8</v>
+        <v>5795.8</v>
       </c>
       <c r="Q39">
-        <v>-852</v>
+        <v>-57.3</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>9637.4</v>
+        <v>5092.6000000000004</v>
       </c>
       <c r="U39">
-        <v>3231.1</v>
+        <v>1805.6</v>
       </c>
       <c r="V39">
-        <v>425.9</v>
+        <v>285.39999999999998</v>
       </c>
       <c r="W39">
-        <v>-110.8275</v>
+        <v>-32.799999999999997</v>
       </c>
       <c r="X39">
-        <v>-833.7</v>
+        <v>-350.8</v>
       </c>
       <c r="Y39">
         <v>0</v>
       </c>
       <c r="Z39">
-        <v>40.5</v>
+        <v>-26.9</v>
       </c>
       <c r="AA39">
-        <v>359.4</v>
+        <v>68.3</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>147.69999999999999</v>
+        <v>99.6</v>
       </c>
       <c r="D40">
-        <v>3062.2</v>
+        <v>2464.1</v>
       </c>
       <c r="E40">
-        <v>1248.3</v>
+        <v>640.5</v>
       </c>
       <c r="F40">
-        <v>315.89999999999998</v>
+        <v>303.89999999999998</v>
       </c>
       <c r="G40">
-        <v>18862</v>
+        <v>9313</v>
       </c>
       <c r="H40">
-        <v>26406.400000000001</v>
+        <v>13422.3</v>
       </c>
       <c r="I40">
-        <v>3132.1</v>
+        <v>1520.9</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>172.1</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +4046,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>3713.9</v>
+        <v>3819.5</v>
       </c>
       <c r="O40">
-        <v>16629.599999999999</v>
+        <v>8427.9</v>
       </c>
       <c r="P40">
-        <v>10447.4</v>
+        <v>5285</v>
       </c>
       <c r="Q40">
-        <v>-195.1</v>
+        <v>43.4</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>9776.7999999999993</v>
+        <v>4994.3999999999996</v>
       </c>
       <c r="U40">
-        <v>3020.1</v>
+        <v>1827.4</v>
       </c>
       <c r="V40">
-        <v>934.9</v>
+        <v>514.1</v>
       </c>
       <c r="W40">
-        <v>-110.59950000000001</v>
+        <v>-32.700000000000003</v>
       </c>
       <c r="X40">
-        <v>-944.7</v>
+        <v>-323.5</v>
       </c>
       <c r="Y40">
         <v>0</v>
       </c>
       <c r="Z40">
-        <v>-28.8</v>
+        <v>-50.5</v>
       </c>
       <c r="AA40">
-        <v>147.69999999999999</v>
+        <v>99.6</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>385.5</v>
+        <v>119.9</v>
       </c>
       <c r="D41">
-        <v>4936</v>
+        <v>2542.5</v>
       </c>
       <c r="E41">
-        <v>1364.7</v>
+        <v>642.1</v>
       </c>
       <c r="F41">
-        <v>635.6</v>
+        <v>326.5</v>
       </c>
       <c r="G41">
-        <v>19417.7</v>
+        <v>9689.6</v>
       </c>
       <c r="H41">
-        <v>27233.7</v>
+        <v>13983.5</v>
       </c>
       <c r="I41">
-        <v>3387.4</v>
+        <v>1629.1</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>4074.6</v>
+        <v>3923</v>
       </c>
       <c r="O41">
-        <v>17049.3</v>
+        <v>8667.5</v>
       </c>
       <c r="P41">
-        <v>10454.5</v>
+        <v>5348.8</v>
       </c>
       <c r="Q41">
-        <v>216.3</v>
+        <v>159.1</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>10184.4</v>
+        <v>5316</v>
       </c>
       <c r="U41">
-        <v>3218.9</v>
+        <v>2017</v>
       </c>
       <c r="V41">
-        <v>831.7</v>
+        <v>363.3</v>
       </c>
       <c r="W41">
-        <v>-111.01</v>
+        <v>-32.799999999999997</v>
       </c>
       <c r="X41">
-        <v>-209.6</v>
+        <v>-187</v>
       </c>
       <c r="Y41">
         <v>0</v>
       </c>
       <c r="Z41">
-        <v>-37.200000000000003</v>
+        <v>-60.1</v>
       </c>
       <c r="AA41">
-        <v>385.5</v>
+        <v>119.9</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>169.8</v>
+      </c>
+      <c r="D42">
+        <v>3055.6</v>
+      </c>
+      <c r="E42">
+        <v>610.4</v>
+      </c>
+      <c r="F42">
+        <v>404.8</v>
+      </c>
+      <c r="G42">
+        <v>9934.2999999999993</v>
+      </c>
+      <c r="H42">
+        <v>14234.1</v>
+      </c>
+      <c r="I42">
+        <v>707.4</v>
+      </c>
+      <c r="J42">
+        <v>150</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>4102.3</v>
+      </c>
+      <c r="O42">
+        <v>8876.2999999999993</v>
+      </c>
+      <c r="P42">
+        <v>5387</v>
+      </c>
+      <c r="Q42">
+        <v>-16.399999999999999</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>17700</v>
+      </c>
+      <c r="T42">
+        <v>5357.8</v>
+      </c>
+      <c r="U42">
+        <v>1982</v>
+      </c>
+      <c r="V42">
+        <v>388.6</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>-99.1</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>-96.2</v>
+      </c>
+      <c r="AA42">
+        <v>169.8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>193.3</v>
+      </c>
+      <c r="D43">
+        <v>3283.6</v>
+      </c>
+      <c r="E43">
+        <v>865.4</v>
+      </c>
+      <c r="F43">
+        <v>460.6</v>
+      </c>
+      <c r="G43">
+        <v>10597.9</v>
+      </c>
+      <c r="H43">
+        <v>15133.7</v>
+      </c>
+      <c r="I43">
+        <v>2042</v>
+      </c>
+      <c r="J43">
+        <v>150</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-250.2</v>
+      </c>
+      <c r="N43">
+        <v>2385.1</v>
+      </c>
+      <c r="O43">
+        <v>9484.7999999999993</v>
+      </c>
+      <c r="P43">
+        <v>5519.1</v>
+      </c>
+      <c r="Q43">
+        <v>-351.1</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>5648.9</v>
+      </c>
+      <c r="U43">
+        <v>1642.8</v>
+      </c>
+      <c r="V43">
+        <v>459.3</v>
+      </c>
+      <c r="W43">
+        <v>-43.8</v>
+      </c>
+      <c r="X43">
+        <v>-10.4</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>-525.79999999999995</v>
+      </c>
+      <c r="AA43">
+        <v>193.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>239.7</v>
+      </c>
+      <c r="D44">
+        <v>3960.7</v>
+      </c>
+      <c r="E44">
+        <v>971.4</v>
+      </c>
+      <c r="F44">
+        <v>528.5</v>
+      </c>
+      <c r="G44">
+        <v>11432.8</v>
+      </c>
+      <c r="H44">
+        <v>16301</v>
+      </c>
+      <c r="I44">
+        <v>2471.8000000000002</v>
+      </c>
+      <c r="J44">
+        <v>150</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>2769.1</v>
+      </c>
+      <c r="O44">
+        <v>10387</v>
+      </c>
+      <c r="P44">
+        <v>5999.1</v>
+      </c>
+      <c r="Q44">
+        <v>182.9</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>5914</v>
+      </c>
+      <c r="U44">
+        <v>1800.4</v>
+      </c>
+      <c r="V44">
+        <v>332.7</v>
+      </c>
+      <c r="W44">
+        <v>-43.9</v>
+      </c>
+      <c r="X44">
+        <v>373.1</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>-40.1</v>
+      </c>
+      <c r="AA44">
+        <v>239.7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>281.60000000000002</v>
+      </c>
+      <c r="D45">
+        <v>4257.1000000000004</v>
+      </c>
+      <c r="E45">
+        <v>1015.2</v>
+      </c>
+      <c r="F45">
+        <v>570.79999999999995</v>
+      </c>
+      <c r="G45">
+        <v>11447.7</v>
+      </c>
+      <c r="H45">
+        <v>16354.3</v>
+      </c>
+      <c r="I45">
+        <v>2532.6999999999998</v>
+      </c>
+      <c r="J45">
+        <v>150</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>2857.4</v>
+      </c>
+      <c r="O45">
+        <v>10760.4</v>
+      </c>
+      <c r="P45">
+        <v>6220.4</v>
+      </c>
+      <c r="Q45">
+        <v>7</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>5593.9</v>
+      </c>
+      <c r="U45">
+        <v>1814</v>
+      </c>
+      <c r="V45">
+        <v>359.3</v>
+      </c>
+      <c r="W45">
+        <v>-65.400000000000006</v>
+      </c>
+      <c r="X45">
+        <v>149.6</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>92.8</v>
+      </c>
+      <c r="AA45">
+        <v>281.60000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>327.7</v>
+      </c>
+      <c r="D46">
+        <v>4853.8</v>
+      </c>
+      <c r="E46">
+        <v>835.4</v>
+      </c>
+      <c r="F46">
+        <v>660.6</v>
+      </c>
+      <c r="G46">
+        <v>12232</v>
+      </c>
+      <c r="H46">
+        <v>17172.7</v>
+      </c>
+      <c r="I46">
+        <v>1098.9000000000001</v>
+      </c>
+      <c r="J46">
+        <v>150</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>6772.7</v>
+      </c>
+      <c r="O46">
+        <v>11808.3</v>
+      </c>
+      <c r="P46">
+        <v>6763.4</v>
+      </c>
+      <c r="Q46">
+        <v>227.1</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>23400</v>
+      </c>
+      <c r="T46">
+        <v>5364.4</v>
+      </c>
+      <c r="U46">
+        <v>1990.6</v>
+      </c>
+      <c r="V46">
+        <v>441.3</v>
+      </c>
+      <c r="W46">
+        <v>-64.3</v>
+      </c>
+      <c r="X46">
+        <v>433.8</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>1.3</v>
+      </c>
+      <c r="AA46">
+        <v>327.7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>327.3</v>
+      </c>
+      <c r="D47">
+        <v>4776.1000000000004</v>
+      </c>
+      <c r="E47">
+        <v>1195.9000000000001</v>
+      </c>
+      <c r="F47">
+        <v>666.1</v>
+      </c>
+      <c r="G47">
+        <v>12986.1</v>
+      </c>
+      <c r="H47">
+        <v>18157.8</v>
+      </c>
+      <c r="I47">
+        <v>2842.8</v>
+      </c>
+      <c r="J47">
+        <v>150</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>-25.9</v>
+      </c>
+      <c r="M47">
+        <v>-259.60000000000002</v>
+      </c>
+      <c r="N47">
+        <v>3224.9</v>
+      </c>
+      <c r="O47">
+        <v>12438.7</v>
+      </c>
+      <c r="P47">
+        <v>7191.6</v>
+      </c>
+      <c r="Q47">
+        <v>-183.6</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>5719.1</v>
+      </c>
+      <c r="U47">
+        <v>1832</v>
+      </c>
+      <c r="V47">
+        <v>126.3</v>
+      </c>
+      <c r="W47">
+        <v>-314.39999999999998</v>
+      </c>
+      <c r="X47">
+        <v>22.4</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>-26.3</v>
+      </c>
+      <c r="AA47">
+        <v>327.3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>297.2</v>
+      </c>
+      <c r="D48">
+        <v>4457.2</v>
+      </c>
+      <c r="E48">
+        <v>1120.9000000000001</v>
+      </c>
+      <c r="F48">
+        <v>636</v>
+      </c>
+      <c r="G48">
+        <v>12941.6</v>
+      </c>
+      <c r="H48">
+        <v>18244.8</v>
+      </c>
+      <c r="I48">
+        <v>2606.4</v>
+      </c>
+      <c r="J48">
+        <v>150</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>2942.9</v>
+      </c>
+      <c r="O48">
+        <v>12532.7</v>
+      </c>
+      <c r="P48">
+        <v>7514.9</v>
+      </c>
+      <c r="Q48">
+        <v>-203.2</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>5712.1</v>
+      </c>
+      <c r="U48">
+        <v>1662.7</v>
+      </c>
+      <c r="V48">
+        <v>317.7</v>
+      </c>
+      <c r="W48">
+        <v>-71.3</v>
+      </c>
+      <c r="X48">
+        <v>241.8</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="AA48">
+        <v>297.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>233.6</v>
+      </c>
+      <c r="D49">
+        <v>3820.2</v>
+      </c>
+      <c r="E49">
+        <v>1003.6</v>
+      </c>
+      <c r="F49">
+        <v>518.6</v>
+      </c>
+      <c r="G49">
+        <v>13104.6</v>
+      </c>
+      <c r="H49">
+        <v>18692.5</v>
+      </c>
+      <c r="I49">
+        <v>2479.1999999999998</v>
+      </c>
+      <c r="J49">
+        <v>150</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>2869.3</v>
+      </c>
+      <c r="O49">
+        <v>12830.4</v>
+      </c>
+      <c r="P49">
+        <v>7778.9</v>
+      </c>
+      <c r="Q49">
+        <v>30.6</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>5862.1</v>
+      </c>
+      <c r="U49">
+        <v>1685</v>
+      </c>
+      <c r="V49">
+        <v>472.6</v>
+      </c>
+      <c r="W49">
+        <v>-70.2</v>
+      </c>
+      <c r="X49">
+        <v>115.8</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>-21.8</v>
+      </c>
+      <c r="AA49">
+        <v>233.6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>253.5</v>
+      </c>
+      <c r="D50">
+        <v>3997</v>
+      </c>
+      <c r="E50">
+        <v>768</v>
+      </c>
+      <c r="F50">
+        <v>530.5</v>
+      </c>
+      <c r="G50">
+        <v>12805.1</v>
+      </c>
+      <c r="H50">
+        <v>18627.8</v>
+      </c>
+      <c r="I50">
+        <v>838</v>
+      </c>
+      <c r="J50">
+        <v>150</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>5820.4</v>
+      </c>
+      <c r="O50">
+        <v>12780.9</v>
+      </c>
+      <c r="P50">
+        <v>7992.4</v>
+      </c>
+      <c r="Q50">
+        <v>-478.1</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>21800</v>
+      </c>
+      <c r="T50">
+        <v>5846.9</v>
+      </c>
+      <c r="U50">
+        <v>1203.2</v>
+      </c>
+      <c r="V50">
+        <v>602.4</v>
+      </c>
+      <c r="W50">
+        <v>-353.6</v>
+      </c>
+      <c r="X50">
+        <v>-170.5</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>-227.9</v>
+      </c>
+      <c r="AA50">
+        <v>253.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>236.1</v>
+      </c>
+      <c r="D51">
+        <v>3924.3</v>
+      </c>
+      <c r="E51">
+        <v>1096</v>
+      </c>
+      <c r="F51">
+        <v>522</v>
+      </c>
+      <c r="G51">
+        <v>12972.6</v>
+      </c>
+      <c r="H51">
+        <v>18834.099999999999</v>
+      </c>
+      <c r="I51">
+        <v>2303</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>-458.9</v>
+      </c>
+      <c r="M51">
+        <v>-15.4</v>
+      </c>
+      <c r="N51">
+        <v>2740.5</v>
+      </c>
+      <c r="O51">
+        <v>12886.2</v>
+      </c>
+      <c r="P51">
+        <v>7950.2</v>
+      </c>
+      <c r="Q51">
+        <v>-11</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>5947.9</v>
+      </c>
+      <c r="U51">
+        <v>1202.0999999999999</v>
+      </c>
+      <c r="V51">
+        <v>384</v>
+      </c>
+      <c r="W51">
+        <v>-70.7</v>
+      </c>
+      <c r="X51">
+        <v>-37.4</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>-19</v>
+      </c>
+      <c r="AA51">
+        <v>236.1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>291.60000000000002</v>
+      </c>
+      <c r="D52">
+        <v>4300.5</v>
+      </c>
+      <c r="E52">
+        <v>1015</v>
+      </c>
+      <c r="F52">
+        <v>598.6</v>
+      </c>
+      <c r="G52">
+        <v>13187.1</v>
+      </c>
+      <c r="H52">
+        <v>19202</v>
+      </c>
+      <c r="I52">
+        <v>2422</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>2858.5</v>
+      </c>
+      <c r="O52">
+        <v>13090.4</v>
+      </c>
+      <c r="P52">
+        <v>7967.4</v>
+      </c>
+      <c r="Q52">
+        <v>180.5</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>6111.6</v>
+      </c>
+      <c r="U52">
+        <v>1341</v>
+      </c>
+      <c r="V52">
+        <v>768.6</v>
+      </c>
+      <c r="W52">
+        <v>-70.7</v>
+      </c>
+      <c r="X52">
+        <v>35.4</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>-24.1</v>
+      </c>
+      <c r="AA52">
+        <v>291.60000000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>309.39999999999998</v>
+      </c>
+      <c r="D53">
+        <v>4300.1000000000004</v>
+      </c>
+      <c r="E53">
+        <v>1093.4000000000001</v>
+      </c>
+      <c r="F53">
+        <v>603.70000000000005</v>
+      </c>
+      <c r="G53">
+        <v>14006.4</v>
+      </c>
+      <c r="H53">
+        <v>20311.599999999999</v>
+      </c>
+      <c r="I53">
+        <v>2515.6</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>3015.1</v>
+      </c>
+      <c r="O53">
+        <v>13830.7</v>
+      </c>
+      <c r="P53">
+        <v>8357.4</v>
+      </c>
+      <c r="Q53">
+        <v>268.5</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>6480.9</v>
+      </c>
+      <c r="U53">
+        <v>1630.4</v>
+      </c>
+      <c r="V53">
+        <v>547.70000000000005</v>
+      </c>
+      <c r="W53">
+        <v>-70.900000000000006</v>
+      </c>
+      <c r="X53">
+        <v>221.9</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>13.1</v>
+      </c>
+      <c r="AA53">
+        <v>309.39999999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>334.2</v>
+      </c>
+      <c r="D54">
+        <v>4598.8999999999996</v>
+      </c>
+      <c r="E54">
+        <v>847.6</v>
+      </c>
+      <c r="F54">
+        <v>664.1</v>
+      </c>
+      <c r="G54">
+        <v>14032.1</v>
+      </c>
+      <c r="H54">
+        <v>20725.5</v>
+      </c>
+      <c r="I54">
+        <v>1005.6</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>5350.1</v>
+      </c>
+      <c r="O54">
+        <v>14091.2</v>
+      </c>
+      <c r="P54">
+        <v>8491.9</v>
+      </c>
+      <c r="Q54">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>21800</v>
+      </c>
+      <c r="T54">
+        <v>6634.3</v>
+      </c>
+      <c r="U54">
+        <v>1657.7</v>
+      </c>
+      <c r="V54">
+        <v>675.4</v>
+      </c>
+      <c r="W54">
+        <v>-70.8</v>
+      </c>
+      <c r="X54">
+        <v>53.9</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>-71.2</v>
+      </c>
+      <c r="AA54">
+        <v>334.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>273.89999999999998</v>
+      </c>
+      <c r="D55">
+        <v>4379.8999999999996</v>
+      </c>
+      <c r="E55">
+        <v>1186.9000000000001</v>
+      </c>
+      <c r="F55">
+        <v>576.20000000000005</v>
+      </c>
+      <c r="G55">
+        <v>13925.6</v>
+      </c>
+      <c r="H55">
+        <v>20597.599999999999</v>
+      </c>
+      <c r="I55">
+        <v>2410.1999999999998</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-550</v>
+      </c>
+      <c r="N55">
+        <v>2811.7</v>
+      </c>
+      <c r="O55">
+        <v>13734.1</v>
+      </c>
+      <c r="P55">
+        <v>8289.5</v>
+      </c>
+      <c r="Q55">
+        <v>-460.2</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>6863.5</v>
+      </c>
+      <c r="U55">
+        <v>1211.2</v>
+      </c>
+      <c r="V55">
+        <v>285.7</v>
+      </c>
+      <c r="W55">
+        <v>-389.7</v>
+      </c>
+      <c r="X55">
+        <v>-568.1</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>12.8</v>
+      </c>
+      <c r="AA55">
+        <v>273.89999999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>319.2</v>
+      </c>
+      <c r="D56">
+        <v>4569.6000000000004</v>
+      </c>
+      <c r="E56">
+        <v>1232.2</v>
+      </c>
+      <c r="F56">
+        <v>639.29999999999995</v>
+      </c>
+      <c r="G56">
+        <v>14143.4</v>
+      </c>
+      <c r="H56">
+        <v>20907.400000000001</v>
+      </c>
+      <c r="I56">
+        <v>2338.3000000000002</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>2749.7</v>
+      </c>
+      <c r="O56">
+        <v>13748.1</v>
+      </c>
+      <c r="P56">
+        <v>8382.2000000000007</v>
+      </c>
+      <c r="Q56">
+        <v>90.4</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>7159.3</v>
+      </c>
+      <c r="U56">
+        <v>1304.8</v>
+      </c>
+      <c r="V56">
+        <v>555.1</v>
+      </c>
+      <c r="W56">
+        <v>-78.099999999999994</v>
+      </c>
+      <c r="X56">
+        <v>2.4</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>-82.6</v>
+      </c>
+      <c r="AA56">
+        <v>319.2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>371.4</v>
+      </c>
+      <c r="D57">
+        <v>4928.3999999999996</v>
+      </c>
+      <c r="E57">
+        <v>1313.4</v>
+      </c>
+      <c r="F57">
+        <v>713.1</v>
+      </c>
+      <c r="G57">
+        <v>14511.6</v>
+      </c>
+      <c r="H57">
+        <v>21026.1</v>
+      </c>
+      <c r="I57">
+        <v>2597</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>3026.4</v>
+      </c>
+      <c r="O57">
+        <v>13863.4</v>
+      </c>
+      <c r="P57">
+        <v>8266.6</v>
+      </c>
+      <c r="Q57">
+        <v>268.10000000000002</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>7162.7</v>
+      </c>
+      <c r="U57">
+        <v>1540</v>
+      </c>
+      <c r="V57">
+        <v>760.8</v>
+      </c>
+      <c r="W57">
+        <v>-78</v>
+      </c>
+      <c r="X57">
+        <v>-10.1</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>-58.1</v>
+      </c>
+      <c r="AA57">
+        <v>371.4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>394.3</v>
+      </c>
+      <c r="D58">
+        <v>5119.1000000000004</v>
+      </c>
+      <c r="E58">
+        <v>882.1</v>
+      </c>
+      <c r="F58">
+        <v>753</v>
+      </c>
+      <c r="G58">
+        <v>14420.6</v>
+      </c>
+      <c r="H58">
+        <v>20618.8</v>
+      </c>
+      <c r="I58">
+        <v>1167.5999999999999</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>5669.5</v>
+      </c>
+      <c r="O58">
+        <v>13865.6</v>
+      </c>
+      <c r="P58">
+        <v>8276.2999999999993</v>
+      </c>
+      <c r="Q58">
+        <v>89.2</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>23300</v>
+      </c>
+      <c r="T58">
+        <v>6753.2</v>
+      </c>
+      <c r="U58">
+        <v>1665.1</v>
+      </c>
+      <c r="V58">
+        <v>522</v>
+      </c>
+      <c r="W58">
+        <v>-78</v>
+      </c>
+      <c r="X58">
+        <v>55.3</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>3.3</v>
+      </c>
+      <c r="AA58">
+        <v>394.3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>378.4</v>
+      </c>
+      <c r="D59">
+        <v>4832.7</v>
+      </c>
+      <c r="E59">
+        <v>1304.5</v>
+      </c>
+      <c r="F59">
+        <v>726.8</v>
+      </c>
+      <c r="G59">
+        <v>14433.4</v>
+      </c>
+      <c r="H59">
+        <v>20326.8</v>
+      </c>
+      <c r="I59">
+        <v>2498.3000000000002</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>-347.9</v>
+      </c>
+      <c r="M59">
+        <v>-20.2</v>
+      </c>
+      <c r="N59">
+        <v>2963.1</v>
+      </c>
+      <c r="O59">
+        <v>13595.2</v>
+      </c>
+      <c r="P59">
+        <v>8250.5</v>
+      </c>
+      <c r="Q59">
+        <v>-172.9</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>6731.6</v>
+      </c>
+      <c r="U59">
+        <v>1487.3</v>
+      </c>
+      <c r="V59">
+        <v>476.2</v>
+      </c>
+      <c r="W59">
+        <v>-432.4</v>
+      </c>
+      <c r="X59">
+        <v>-239.9</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>-45.8</v>
+      </c>
+      <c r="AA59">
+        <v>378.4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>447.2</v>
+      </c>
+      <c r="D60">
+        <v>5079.8999999999996</v>
+      </c>
+      <c r="E60">
+        <v>1228.0999999999999</v>
+      </c>
+      <c r="F60">
+        <v>815.7</v>
+      </c>
+      <c r="G60">
+        <v>15290.4</v>
+      </c>
+      <c r="H60">
+        <v>21415.3</v>
+      </c>
+      <c r="I60">
+        <v>2642.9</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>3114</v>
+      </c>
+      <c r="O60">
+        <v>14196.7</v>
+      </c>
+      <c r="P60">
+        <v>8641.6</v>
+      </c>
+      <c r="Q60">
+        <v>398.4</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>7218.6</v>
+      </c>
+      <c r="U60">
+        <v>1877.7</v>
+      </c>
+      <c r="V60">
+        <v>710.9</v>
+      </c>
+      <c r="W60">
+        <v>-78.099999999999994</v>
+      </c>
+      <c r="X60">
+        <v>245.2</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>-148.6</v>
+      </c>
+      <c r="AA60">
+        <v>447.2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>431.2</v>
+      </c>
+      <c r="D61">
+        <v>4847.2</v>
+      </c>
+      <c r="E61">
+        <v>1118</v>
+      </c>
+      <c r="F61">
+        <v>787.8</v>
+      </c>
+      <c r="G61">
+        <v>15361</v>
+      </c>
+      <c r="H61">
+        <v>21519.8</v>
+      </c>
+      <c r="I61">
+        <v>2520.1999999999998</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>2915.2</v>
+      </c>
+      <c r="O61">
+        <v>14176</v>
+      </c>
+      <c r="P61">
+        <v>8741.6</v>
+      </c>
+      <c r="Q61">
+        <v>163</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>7343.8</v>
+      </c>
+      <c r="U61">
+        <v>2051.9</v>
+      </c>
+      <c r="V61">
+        <v>664.1</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>-21.7</v>
+      </c>
+      <c r="AA61">
+        <v>431.2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>347.2</v>
+      </c>
+      <c r="D62">
+        <v>4355.3</v>
+      </c>
+      <c r="E62">
+        <v>739.2</v>
+      </c>
+      <c r="F62">
+        <v>683</v>
+      </c>
+      <c r="G62">
+        <v>14836.4</v>
+      </c>
+      <c r="H62">
+        <v>21109.8</v>
+      </c>
+      <c r="I62">
+        <v>929.7</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>5693.9</v>
+      </c>
+      <c r="O62">
+        <v>14169.4</v>
+      </c>
+      <c r="P62">
+        <v>8638.2000000000007</v>
+      </c>
+      <c r="Q62">
+        <v>-109.7</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>23000</v>
+      </c>
+      <c r="T62">
+        <v>6940.4</v>
+      </c>
+      <c r="U62">
+        <v>1929.9</v>
+      </c>
+      <c r="V62">
+        <v>704.8</v>
+      </c>
+      <c r="W62">
+        <v>-439.38299999999998</v>
+      </c>
+      <c r="X62">
+        <v>-221.4</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>-78.2</v>
+      </c>
+      <c r="AA62">
+        <v>347.2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>-594.6</v>
+      </c>
+      <c r="D63">
+        <v>4300</v>
+      </c>
+      <c r="E63">
+        <v>1066.0999999999999</v>
+      </c>
+      <c r="F63">
+        <v>677.3</v>
+      </c>
+      <c r="G63">
+        <v>14866.5</v>
+      </c>
+      <c r="H63">
+        <v>21356.9</v>
+      </c>
+      <c r="I63">
+        <v>2361.6</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>-117.9</v>
+      </c>
+      <c r="M63">
+        <v>-500</v>
+      </c>
+      <c r="N63">
+        <v>3737.6</v>
+      </c>
+      <c r="O63">
+        <v>15013.7</v>
+      </c>
+      <c r="P63">
+        <v>8632.1</v>
+      </c>
+      <c r="Q63">
+        <v>-169.1</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>6343.2</v>
+      </c>
+      <c r="U63">
+        <v>1765</v>
+      </c>
+      <c r="V63">
+        <v>795.8</v>
+      </c>
+      <c r="W63">
+        <v>-128.19999999999999</v>
+      </c>
+      <c r="X63">
+        <v>-722.9</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>14</v>
+      </c>
+      <c r="AA63">
+        <v>-594.6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>481.3</v>
+      </c>
+      <c r="D64">
+        <v>4413.2</v>
+      </c>
+      <c r="E64">
+        <v>1070.2</v>
+      </c>
+      <c r="F64">
+        <v>703.7</v>
+      </c>
+      <c r="G64">
+        <v>14815.8</v>
+      </c>
+      <c r="H64">
+        <v>21427.200000000001</v>
+      </c>
+      <c r="I64">
+        <v>2337.1</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>3603.9</v>
+      </c>
+      <c r="O64">
+        <v>14717.5</v>
+      </c>
+      <c r="P64">
+        <v>8497.6</v>
+      </c>
+      <c r="Q64">
+        <v>217.6</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>6709.7</v>
+      </c>
+      <c r="U64">
+        <v>1970.9</v>
+      </c>
+      <c r="V64">
+        <v>853.6</v>
+      </c>
+      <c r="W64">
+        <v>-532.79999999999995</v>
+      </c>
+      <c r="X64">
+        <v>-118.9</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>14.5</v>
+      </c>
+      <c r="AA64">
+        <v>481.3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>346.2</v>
+      </c>
+      <c r="D65">
+        <v>4249.3999999999996</v>
+      </c>
+      <c r="E65">
+        <v>1025.9000000000001</v>
+      </c>
+      <c r="F65">
+        <v>652.70000000000005</v>
+      </c>
+      <c r="G65">
+        <v>14134</v>
+      </c>
+      <c r="H65">
+        <v>20968.900000000001</v>
+      </c>
+      <c r="I65">
+        <v>2295.1999999999998</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>2735.8</v>
+      </c>
+      <c r="O65">
+        <v>13990.7</v>
+      </c>
+      <c r="P65">
+        <v>8594.6</v>
+      </c>
+      <c r="Q65">
+        <v>-277</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>6978.2</v>
+      </c>
+      <c r="U65">
+        <v>1722.3</v>
+      </c>
+      <c r="V65">
+        <v>-158.9</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>342.2</v>
+      </c>
+      <c r="AA65">
+        <v>346.2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>288.8</v>
+      </c>
+      <c r="D66">
+        <v>4070.7</v>
+      </c>
+      <c r="E66">
+        <v>734.6</v>
+      </c>
+      <c r="F66">
+        <v>601.70000000000005</v>
+      </c>
+      <c r="G66">
+        <v>14115.9</v>
+      </c>
+      <c r="H66">
+        <v>20638.900000000001</v>
+      </c>
+      <c r="I66">
+        <v>938.6</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>5029.8</v>
+      </c>
+      <c r="O66">
+        <v>13861.3</v>
+      </c>
+      <c r="P66">
+        <v>8521.6</v>
+      </c>
+      <c r="Q66">
+        <v>127.8</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>23000</v>
+      </c>
+      <c r="T66">
+        <v>6777.6</v>
+      </c>
+      <c r="U66">
+        <v>1781.7</v>
+      </c>
+      <c r="V66">
+        <v>810.3</v>
+      </c>
+      <c r="W66">
+        <v>-427.41</v>
+      </c>
+      <c r="X66">
+        <v>8.5</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>-97.8</v>
+      </c>
+      <c r="AA66">
+        <v>288.8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>310.3</v>
+      </c>
+      <c r="D67">
+        <v>4237.8999999999996</v>
+      </c>
+      <c r="E67">
+        <v>1145.5999999999999</v>
+      </c>
+      <c r="F67">
+        <v>601.6</v>
+      </c>
+      <c r="G67">
+        <v>14178</v>
+      </c>
+      <c r="H67">
+        <v>21039.7</v>
+      </c>
+      <c r="I67">
+        <v>2374.6999999999998</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-599.6</v>
+      </c>
+      <c r="N67">
+        <v>2834.7</v>
+      </c>
+      <c r="O67">
+        <v>13960.4</v>
+      </c>
+      <c r="P67">
+        <v>8415.4</v>
+      </c>
+      <c r="Q67">
+        <v>-151.30000000000001</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>7079.3</v>
+      </c>
+      <c r="U67">
+        <v>1688.3</v>
+      </c>
+      <c r="V67">
+        <v>610.5</v>
+      </c>
+      <c r="W67">
+        <v>-146.1712</v>
+      </c>
+      <c r="X67">
+        <v>-445.7</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>-60.3</v>
+      </c>
+      <c r="AA67">
+        <v>310.3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>373</v>
+      </c>
+      <c r="D68">
+        <v>4704.2</v>
+      </c>
+      <c r="E68">
+        <v>1281</v>
+      </c>
+      <c r="F68">
+        <v>696.3</v>
+      </c>
+      <c r="G68">
+        <v>15092.5</v>
+      </c>
+      <c r="H68">
+        <v>22053.3</v>
+      </c>
+      <c r="I68">
+        <v>2548.1999999999998</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>3092.4</v>
+      </c>
+      <c r="O68">
+        <v>14552.8</v>
+      </c>
+      <c r="P68">
+        <v>8616.7999999999993</v>
+      </c>
+      <c r="Q68">
+        <v>115.4</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>7500.5</v>
+      </c>
+      <c r="U68">
+        <v>1760.1</v>
+      </c>
+      <c r="V68">
+        <v>574.70000000000005</v>
+      </c>
+      <c r="W68">
+        <v>-236.3288</v>
+      </c>
+      <c r="X68">
+        <v>-62.1</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>-16</v>
+      </c>
+      <c r="AA68">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>402.7</v>
+      </c>
+      <c r="D69">
+        <v>5059.7</v>
+      </c>
+      <c r="E69">
+        <v>1323.8</v>
+      </c>
+      <c r="F69">
+        <v>746.5</v>
+      </c>
+      <c r="G69">
+        <v>15910.6</v>
+      </c>
+      <c r="H69">
+        <v>23103.9</v>
+      </c>
+      <c r="I69">
+        <v>2754.9</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>3325.8</v>
+      </c>
+      <c r="O69">
+        <v>15168.3</v>
+      </c>
+      <c r="P69">
+        <v>8923.2999999999993</v>
+      </c>
+      <c r="Q69">
+        <v>433.5</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>7935.6</v>
+      </c>
+      <c r="U69">
+        <v>2205.3000000000002</v>
+      </c>
+      <c r="V69">
+        <v>637.29999999999995</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>138.5</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>41.5</v>
+      </c>
+      <c r="AA69">
+        <v>402.7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>589.20000000000005</v>
+      </c>
+      <c r="D70">
+        <v>5454.6</v>
+      </c>
+      <c r="E70">
+        <v>962</v>
+      </c>
+      <c r="F70">
+        <v>775.9</v>
+      </c>
+      <c r="G70">
+        <v>16177.8</v>
+      </c>
+      <c r="H70">
+        <v>23440.2</v>
+      </c>
+      <c r="I70">
+        <v>1154.7</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>6404.8</v>
+      </c>
+      <c r="O70">
+        <v>15389.7</v>
+      </c>
+      <c r="P70">
+        <v>8977.7000000000007</v>
+      </c>
+      <c r="Q70">
+        <v>51.4</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>25000</v>
+      </c>
+      <c r="T70">
+        <v>8050.5</v>
+      </c>
+      <c r="U70">
+        <v>2254.8000000000002</v>
+      </c>
+      <c r="V70">
+        <v>893.3</v>
+      </c>
+      <c r="W70">
+        <v>-27.526869999999999</v>
+      </c>
+      <c r="X70">
+        <v>-24.5</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>-156</v>
+      </c>
+      <c r="AA70">
+        <v>589.20000000000005</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>512.1</v>
+      </c>
+      <c r="D71">
+        <v>5654</v>
+      </c>
+      <c r="E71">
+        <v>1468.8</v>
+      </c>
+      <c r="F71">
+        <v>853.8</v>
+      </c>
+      <c r="G71">
+        <v>16860.3</v>
+      </c>
+      <c r="H71">
+        <v>23781.7</v>
+      </c>
+      <c r="I71">
+        <v>3013.6</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-508.2</v>
+      </c>
+      <c r="N71">
+        <v>3801.2</v>
+      </c>
+      <c r="O71">
+        <v>15214.4</v>
+      </c>
+      <c r="P71">
+        <v>9238.2000000000007</v>
+      </c>
+      <c r="Q71">
+        <v>139.4</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>8567.2999999999993</v>
+      </c>
+      <c r="U71">
+        <v>2425.5</v>
+      </c>
+      <c r="V71">
+        <v>525.29999999999995</v>
+      </c>
+      <c r="W71">
+        <v>-87.948279999999997</v>
+      </c>
+      <c r="X71">
+        <v>-339.3</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>320.10000000000002</v>
+      </c>
+      <c r="AA71">
+        <v>512.1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>559.6</v>
+      </c>
+      <c r="D72">
+        <v>5805.2</v>
+      </c>
+      <c r="E72">
+        <v>1546.9</v>
+      </c>
+      <c r="F72">
+        <v>892.3</v>
+      </c>
+      <c r="G72">
+        <v>17339.2</v>
+      </c>
+      <c r="H72">
+        <v>24155.8</v>
+      </c>
+      <c r="I72">
+        <v>3094.2</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>3894.2</v>
+      </c>
+      <c r="O72">
+        <v>15376.4</v>
+      </c>
+      <c r="P72">
+        <v>9236.1</v>
+      </c>
+      <c r="Q72">
+        <v>2.7</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>8779.4</v>
+      </c>
+      <c r="U72">
+        <v>2411.5</v>
+      </c>
+      <c r="V72">
+        <v>673.2</v>
+      </c>
+      <c r="W72">
+        <v>-98.399720000000002</v>
+      </c>
+      <c r="X72">
+        <v>60.7</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>-3.2</v>
+      </c>
+      <c r="AA72">
+        <v>559.6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>545.29999999999995</v>
+      </c>
+      <c r="D73">
+        <v>5756.8</v>
+      </c>
+      <c r="E73">
+        <v>1608.6</v>
+      </c>
+      <c r="F73">
+        <v>842.1</v>
+      </c>
+      <c r="G73">
+        <v>18071.5</v>
+      </c>
+      <c r="H73">
+        <v>25103.4</v>
+      </c>
+      <c r="I73">
+        <v>3229.4</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>3842.9</v>
+      </c>
+      <c r="O73">
+        <v>15932.4</v>
+      </c>
+      <c r="P73">
+        <v>9615.5</v>
+      </c>
+      <c r="Q73">
+        <v>407.2</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>9171</v>
+      </c>
+      <c r="U73">
+        <v>2792</v>
+      </c>
+      <c r="V73">
+        <v>728.7</v>
+      </c>
+      <c r="W73">
+        <v>-98.1</v>
+      </c>
+      <c r="X73">
+        <v>214.9</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>26.3</v>
+      </c>
+      <c r="AA73">
+        <v>545.29999999999995</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>578.1</v>
+      </c>
+      <c r="D74">
+        <v>6279.7</v>
+      </c>
+      <c r="E74">
+        <v>1103.5999999999999</v>
+      </c>
+      <c r="F74">
+        <v>931.3</v>
+      </c>
+      <c r="G74">
+        <v>18483.5</v>
+      </c>
+      <c r="H74">
+        <v>25482.400000000001</v>
+      </c>
+      <c r="I74">
+        <v>1304.9000000000001</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>7669.5</v>
+      </c>
+      <c r="O74">
+        <v>16889.5</v>
+      </c>
+      <c r="P74">
+        <v>9969</v>
+      </c>
+      <c r="Q74">
+        <v>521.9</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>28000</v>
+      </c>
+      <c r="T74">
+        <v>8592.9</v>
+      </c>
+      <c r="U74">
+        <v>3279.2</v>
+      </c>
+      <c r="V74">
+        <v>1065.0999999999999</v>
+      </c>
+      <c r="W74">
+        <v>-273.85199999999998</v>
+      </c>
+      <c r="X74">
+        <v>134.80000000000001</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>-27.6</v>
+      </c>
+      <c r="AA74">
+        <v>578.1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>629</v>
+      </c>
+      <c r="D75">
+        <v>6487.6</v>
+      </c>
+      <c r="E75">
+        <v>1736.2</v>
+      </c>
+      <c r="F75">
+        <v>1005</v>
+      </c>
+      <c r="G75">
+        <v>18989.900000000001</v>
+      </c>
+      <c r="H75">
+        <v>26157</v>
+      </c>
+      <c r="I75">
+        <v>3484.8</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>-113.9</v>
+      </c>
+      <c r="M75">
+        <v>-250</v>
+      </c>
+      <c r="N75">
+        <v>4324.5</v>
+      </c>
+      <c r="O75">
+        <v>17051.5</v>
+      </c>
+      <c r="P75">
+        <v>10259.200000000001</v>
+      </c>
+      <c r="Q75">
+        <v>-593.29999999999995</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>9105.5</v>
+      </c>
+      <c r="U75">
+        <v>2733.1</v>
+      </c>
+      <c r="V75">
+        <v>363</v>
+      </c>
+      <c r="W75">
+        <v>-98.995000000000005</v>
+      </c>
+      <c r="X75">
+        <v>-550.29999999999995</v>
+      </c>
+      <c r="Y75">
+        <v>30.4</v>
+      </c>
+      <c r="Z75">
+        <v>-56</v>
+      </c>
+      <c r="AA75">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>619.70000000000005</v>
+      </c>
+      <c r="D76">
+        <v>6627.9</v>
+      </c>
+      <c r="E76">
+        <v>1711.2</v>
+      </c>
+      <c r="F76">
+        <v>1005.1</v>
+      </c>
+      <c r="G76">
+        <v>19761.400000000001</v>
+      </c>
+      <c r="H76">
+        <v>27168.2</v>
+      </c>
+      <c r="I76">
+        <v>3448.1</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>4264.3999999999996</v>
+      </c>
+      <c r="O76">
+        <v>17532.8</v>
+      </c>
+      <c r="P76">
+        <v>10704.6</v>
+      </c>
+      <c r="Q76">
+        <v>376.8</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>9635.4</v>
+      </c>
+      <c r="U76">
+        <v>3063.9</v>
+      </c>
+      <c r="V76">
+        <v>826.5</v>
+      </c>
+      <c r="W76">
+        <v>-110.9</v>
+      </c>
+      <c r="X76">
+        <v>268.3</v>
+      </c>
+      <c r="Y76">
+        <v>29.3</v>
+      </c>
+      <c r="Z76">
+        <v>-31.8</v>
+      </c>
+      <c r="AA76">
+        <v>619.70000000000005</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>607.9</v>
+      </c>
+      <c r="D77">
+        <v>6367</v>
+      </c>
+      <c r="E77">
+        <v>1729</v>
+      </c>
+      <c r="F77">
+        <v>963.9</v>
+      </c>
+      <c r="G77">
+        <v>20371</v>
+      </c>
+      <c r="H77">
+        <v>27767.7</v>
+      </c>
+      <c r="I77">
+        <v>3521.2</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>4278.2</v>
+      </c>
+      <c r="O77">
+        <v>17805</v>
+      </c>
+      <c r="P77">
+        <v>10925.2</v>
+      </c>
+      <c r="Q77">
+        <v>450.1</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>9962.7000000000007</v>
+      </c>
+      <c r="U77">
+        <v>3535.2</v>
+      </c>
+      <c r="V77">
+        <v>727.1</v>
+      </c>
+      <c r="W77">
+        <v>-123.44499999999999</v>
+      </c>
+      <c r="X77">
+        <v>193.3</v>
+      </c>
+      <c r="Y77">
+        <v>27.4</v>
+      </c>
+      <c r="Z77">
+        <v>-2.8</v>
+      </c>
+      <c r="AA77">
+        <v>607.9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>531.29999999999995</v>
+      </c>
+      <c r="D78">
+        <v>6117.2</v>
+      </c>
+      <c r="E78">
+        <v>1055</v>
+      </c>
+      <c r="F78">
+        <v>889</v>
+      </c>
+      <c r="G78">
+        <v>20733.3</v>
+      </c>
+      <c r="H78">
+        <v>28361.1</v>
+      </c>
+      <c r="I78">
+        <v>1115.7</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>8619.6</v>
+      </c>
+      <c r="O78">
+        <v>18655</v>
+      </c>
+      <c r="P78">
+        <v>11292.6</v>
+      </c>
+      <c r="Q78">
+        <v>505.6</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>27000</v>
+      </c>
+      <c r="T78">
+        <v>9706.1</v>
+      </c>
+      <c r="U78">
+        <v>4007.3</v>
+      </c>
+      <c r="V78">
+        <v>943.7</v>
+      </c>
+      <c r="W78">
+        <v>-805.26</v>
+      </c>
+      <c r="X78">
+        <v>172.1</v>
+      </c>
+      <c r="Y78">
+        <v>23.7</v>
+      </c>
+      <c r="Z78">
+        <v>-44.5</v>
+      </c>
+      <c r="AA78">
+        <v>531.29999999999995</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>359.4</v>
+      </c>
+      <c r="D79">
+        <v>5161.7</v>
+      </c>
+      <c r="E79">
+        <v>1277</v>
+      </c>
+      <c r="F79">
+        <v>636.70000000000005</v>
+      </c>
+      <c r="G79">
+        <v>19755.8</v>
+      </c>
+      <c r="H79">
+        <v>27294.7</v>
+      </c>
+      <c r="I79">
+        <v>3206.5</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>-133.5</v>
+      </c>
+      <c r="M79">
+        <v>-467.6</v>
+      </c>
+      <c r="N79">
+        <v>3914.2</v>
+      </c>
+      <c r="O79">
+        <v>17657.3</v>
+      </c>
+      <c r="P79">
+        <v>11191.8</v>
+      </c>
+      <c r="Q79">
+        <v>-852</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>9637.4</v>
+      </c>
+      <c r="U79">
+        <v>3231.1</v>
+      </c>
+      <c r="V79">
+        <v>425.9</v>
+      </c>
+      <c r="W79">
+        <v>-110.8275</v>
+      </c>
+      <c r="X79">
+        <v>-833.7</v>
+      </c>
+      <c r="Y79">
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <v>40.5</v>
+      </c>
+      <c r="AA79">
+        <v>359.4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>147.69999999999999</v>
+      </c>
+      <c r="D80">
+        <v>3062.2</v>
+      </c>
+      <c r="E80">
+        <v>1248.3</v>
+      </c>
+      <c r="F80">
+        <v>315.89999999999998</v>
+      </c>
+      <c r="G80">
+        <v>18862</v>
+      </c>
+      <c r="H80">
+        <v>26406.400000000001</v>
+      </c>
+      <c r="I80">
+        <v>3132.1</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>3713.9</v>
+      </c>
+      <c r="O80">
+        <v>16629.599999999999</v>
+      </c>
+      <c r="P80">
+        <v>10447.4</v>
+      </c>
+      <c r="Q80">
+        <v>-195.1</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>9776.7999999999993</v>
+      </c>
+      <c r="U80">
+        <v>3020.1</v>
+      </c>
+      <c r="V80">
+        <v>934.9</v>
+      </c>
+      <c r="W80">
+        <v>-110.59950000000001</v>
+      </c>
+      <c r="X80">
+        <v>-944.7</v>
+      </c>
+      <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <v>-28.8</v>
+      </c>
+      <c r="AA80">
+        <v>147.69999999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>385.5</v>
+      </c>
+      <c r="D81">
+        <v>4936</v>
+      </c>
+      <c r="E81">
+        <v>1364.7</v>
+      </c>
+      <c r="F81">
+        <v>635.6</v>
+      </c>
+      <c r="G81">
+        <v>19417.7</v>
+      </c>
+      <c r="H81">
+        <v>27233.7</v>
+      </c>
+      <c r="I81">
+        <v>3387.4</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>4074.6</v>
+      </c>
+      <c r="O81">
+        <v>17049.3</v>
+      </c>
+      <c r="P81">
+        <v>10454.5</v>
+      </c>
+      <c r="Q81">
+        <v>216.3</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>10184.4</v>
+      </c>
+      <c r="U81">
+        <v>3218.9</v>
+      </c>
+      <c r="V81">
+        <v>831.7</v>
+      </c>
+      <c r="W81">
+        <v>-111.01</v>
+      </c>
+      <c r="X81">
+        <v>-209.6</v>
+      </c>
+      <c r="Y81">
+        <v>0</v>
+      </c>
+      <c r="Z81">
+        <v>-37.200000000000003</v>
+      </c>
+      <c r="AA81">
+        <v>385.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>405.8</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>5568.6</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>942.7</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>712.8</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>20135.8</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>28260</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>1176.2</v>
       </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>7869.3</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>17870</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>11010.7</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>195.3</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>26000</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>10390</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>3405</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>794.7</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-110.843</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>179.5</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>27.4</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>-219.1</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>405.8</v>
       </c>
     </row>
